--- a/news_data/2018_08.xlsx
+++ b/news_data/2018_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,15 +22,102 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 하반기 관광진흥기금 500억 융자지원</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월부터 매달 1차례 '팜팜버스' 운영</t>
+  </si>
+  <si>
+    <t>제주도, 몽골과 관광·문화·스포츠 교류협약 체결</t>
+  </si>
+  <si>
+    <t>9월 제주도 여행 10선...놓치면 후회할 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도 가을여행, 대표 관광지와 가까운 '제주올레로펜션'</t>
+  </si>
+  <si>
+    <t>제주도에서 여성 관광객, 태풍에 파도 휩쓸려 실종</t>
+  </si>
+  <si>
+    <t>제주도, 오름 생태관광 참가자 모집</t>
+  </si>
+  <si>
+    <t>제주도, 일본인 관광객 겨냥 홍보마케팅 강화한다</t>
+  </si>
+  <si>
+    <t>태풍 솔릭 제주도 강타, 관광객 1명 실종 등…태풍 피해 속출</t>
+  </si>
+  <si>
+    <t>제주도, 도 관광협회 "가을철, 9월 국내여행은 제주도에서 풍성하게!"</t>
+  </si>
+  <si>
+    <t>제주도·제주도 관광협회, 9월 이벤트 개최…할인 혜택·경품 증정</t>
+  </si>
+  <si>
+    <t>제주도, 태풍 솔릭 상륙에 '비상'…관광객 1명 실종·정전·시설물 피해 "새벽...</t>
+  </si>
+  <si>
+    <t>제주도 9월 한 달간 관광 할인경품 이벤트</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈·오름 생태관광 프로그램 참여자 모집(9월~11월 3차례)</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 9월 1260개 업체와 가을 행사 '빅이벤트'</t>
+  </si>
+  <si>
+    <t>제주도 실물경제...건설업 '부진', 관광업 폭염영향 '위축'</t>
+  </si>
+  <si>
+    <t>제주도, 무슬림 관광객 적극 유치... 도민 정서는?</t>
+  </si>
+  <si>
+    <t>제주도 함덕 맛집, '그때그집함덕점' 세화 근처 관광객들도 찾아가</t>
+  </si>
+  <si>
+    <t>도로 넓히려 관광명소 ‘비자림숲’ 파괴하는 제주도…환경훼손 논란</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 식도락 여행, 흑돼지 연탄구이 맛집</t>
+  </si>
+  <si>
+    <t>청정 제주도 서귀포 전복과 통문어를 함께 즐기는 갈치조림. 중문관광단지 맛...</t>
+  </si>
+  <si>
+    <t>“떠나요 제주도∼” 관광업체 합동세일 이벤트</t>
+  </si>
+  <si>
+    <t>8월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 무더위 피한 실내 관광지 핫플레이...</t>
+  </si>
+  <si>
+    <t>[마켓인사이트]롯데관광개발, 2400억 유상증자...제주도 복합리조트 건설 자금...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 오키나와 관광컨벤션뷰로와 공동협력 마케팅 협약 체결</t>
+  </si>
+  <si>
+    <t>비자림로 숲길 훼손에 제주도 해명, 도민과 관광객 시선은 싸늘...</t>
+  </si>
+  <si>
+    <t>(제주관광공사) 제주도 해녀 문화 대만 시장에 알리다</t>
+  </si>
+  <si>
+    <t>제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다</t>
+  </si>
+  <si>
+    <t>가파도 어떤 곳? 오지에서 뜨는 관광지로...제주도 실종 여성 발견</t>
+  </si>
+  <si>
     <t>아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서...</t>
   </si>
   <si>
+    <t>제주도 중문관광단지 맛집 '이조은식당' 효리의 단골집보다 유명한 서귀포갈치...</t>
+  </si>
+  <si>
     <t>제주도 문화관광해설사협회 창립 17주년 기념행사 개최</t>
   </si>
   <si>
-    <t>제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다</t>
-  </si>
-  <si>
     <t>태풍 솔릭 피해 상황, 제주도 실종 관광객 수색 난항…건설 현장 초토화(사건...</t>
   </si>
   <si>
@@ -52,31 +139,109 @@
     <t>제주도, 9월 관광객 대상 빅 이벤트 추진</t>
   </si>
   <si>
-    <t>아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 &lt; 책과 사람 &lt; 기사본문 - 한국강사신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-04 10:25 (화) 로그인 회원가입 전체기사 전체메뉴 버튼 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 책과 사람 아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 기자명 한상형 기자 입력 2018.08.10 16:02 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저자 손만기의 『제주도 여행백서 : 대한민국 여행자를 위한, 2018-2019』 [한국강사신문 한상형 기자] 대한민국의 영원한 파라다이스 제주도! 세계인의 휴양지이자 한국인이 가장 사랑하는 여행지, 제주도는 볼거리와 먹거리가 넘쳐나는 곳이다. 손만기의 『제주도 여행백서 : 대한민국 여행자를 위한, 2018-2019(나무자전거, 2018)』는 제주의 구석구석 숨어 있는 볼거리, 즐길거리, 먹거리 그리고 카페까지! 가고 싶은 곳을 주저 없이 갈 수 있도록 꼼꼼하게 안내한다. 『제주도 여행백서』는 여행자의 일정과 스타일까지 고려한 맞춤정보들로, 항상 곁에서 가장 든든한 여행 가이드 역할을 할 것이다.“푸른 바다가 손짓하는 제주, 가볍게 떠나자!”『제주도 여행백서』는 제주도에 들어가는 방법부터 제주에서 이용할 수 있는 교통편, 떠나기 전 알아야 할 모든 정보를 알차게 정리했다. 또한 제주를 동부, 서부, 남부, 북부로 나누어 구석구석에 자리한 볼거리, 즐길거리 먹거리, 카페를 엄선하여 알차게 소개했다. 고민 없이 여행백서 한 권으로 가볍게 제주여행을 즐기자!“제주를 만끽할 수 있는 다양한 동선 제시”『제주도 여행백서』는 해안도로를 따라 도는 2박 3일, 이미 제주를 만났던 여행자를 위한 3박 4일, 비경과 오름을 만날 수 있는 4박 5일, 아이와 함께하는 추억을 만드는 2박 3일, 비가 내릴 때 가장 효율적인 2박 3일, 한라산 등반을 위한 6박 7일, 주머니 가벼운 여행자를 위한 2박 3일 일정 등 다양한 제주여행 동선을 제시합니다. 또한 북부(제주시), 서부, 남부, 동부의 지역에서 돌아볼 수 있는 추천일정도 담았다. 간편하게 알찬 일정으로 제주여행을 떠나자!“최신 정보와 트렌드로 무장한 2018~2019년 개정판!”항상 여행자로 북적거리는 제주도의 최신 트렌드를 반영하여 주요 관광지, 레스토랑, 숙소 등의 정보를 보강했으며, 가격 및 영업시간 등의 정보까지 꼼꼼하게 체크했습니다. 특히 각 지역(파트)에서 들러봐야 할 카페와 올라볼 만한 오름 등을 추가 수록하고 커피 맛으로 입소문을 타고 있는 카페를 스페셜페이지로 추가 구성했다. 이 책 『제주도 여행백서』는 총 7개 파트로, 여행준비부터 제주도에서 꼭 필요한 정보까지 바로 파악할 수 있도록 구성했다. 1파트에서는 제주를 이해할 수 있는 전반적인 내용과 여행준비 과정, 추천일정을 소개했다. 또한 2~5파트에서는 제주도를 지역별로 구분하여 명소, 먹거리, 카페 등의 섹션으로 구분하여 세세한 정보를 담았다. 6파트에서는 제주의 오름, 올레, 해안도로, 주변 섬을 주제별로 소개했다. 마지막 7파트에서는 제주의 다양한 숙박시설을 다뤘다. 책 중간중간에는 한라산과 한라산의 주변 명소, 오일장과 벼룩시장 같은 독립적인 볼거리와 테마 여행지를 스페셜페이지로 구분하여 담았다.‘제주 북부지역에서 반드시 둘러봐야 할 명소’로 동문재래시장, 두멩이골목, 사라봉, 한라수목원, 서문공설시장, 제주목관아, 용담해안도로, 용두암, 원당봉(불탑사, 원당사, 문강사), 제주4.3평화공원, 제주도립미술관, 내도 알작지, 신비의도로, 제주민속자연사박물관, 산천단 등을 소개한다.‘제주 동부지역에서 반드시 둘러봐야 할 명소’로 녹산로, 제주돌문화공원, 만장굴, 비자림, 산굼부리, 섭지코지, 성산일출봉, 에코랜드, 제주허브동산, 월정리해변, 김녕 성세기해변, 김영갑갤러리(두모악), 다희연, 메이즈랜드, 함덕 서우봉해변, 혼인지, 고망난돌쉼터, 해녀박물관, 교래자연휴양림, 조천 스위스마을 등을 소개한다. ‘제주 서부지역에서 반드시 둘러봐야 할 명소’로 용머리해안, 협재해변, 곽지 과물해변, 산방산(산방굴사), 서광다원(오설록티뮤지엄), 애월초등학교 더럭분교, 라온더마(馬)파크, 구엄리 돌염전(소금빌레), 생각하는정원, 애월 한담해변산책로, 월령리 선인장군락지, 송악산, 성이시돌목장, 순례자의교회, 수월봉, 제주표착기념관, 모슬포항, 방림원, 유리의성, 저지문화예술인마을, 제주초콜릿박물관, 추사관과 추사유배길, 공룡랜드, 낙천리 아홉굿마을, 항파두리항몽유적지, 차귀도 해적잠수함, 마린파크, 차귀도 등을 소개한다.‘제주 남부지역에서 반드시 둘러봐야 할 명소’로 수(水.風.石)박물관, 카멜리아힐, 샹그릴라요트투어, 쇠소깍, 작가의산책길(유토피아로), 새연교(새섬), 서귀포매일올레시장, 걸매생태공원과 오솔길벽화마을, 갯깍주상절리, 천지연폭포, 대포해안주상절리, 박수기정, 안덕계곡, 엉또폭포, 약천사, 원앙폭포, 정방폭포, 중문 색달해변, 남원 큰엉해안경승지, 외돌개, 위미리 동백군락지, 세계조가비박물관, 천제연폭포, 방주교회, 세계자동차박물관, 들렁모루 등을 소개한다.저자 손만기는 카메라 하나 들쳐 메고 전국을 여행하면서 아름다운 풍경을 글과 사진으로 기록하는 자유여행가이자 여행작가이다. 국내 다수 지자체 취재활동과 더불어, 여행 컨설턴트, 여행작가로서 왕성한 활동을 하고 있다. 지금도 끊임없이 전국 방방곡곡에 발도장을 찍으며 자료를 수집하고, 여행자들과 소통하고 있다. 저서로는 『서울·경기 여행백서』, 『전라도 여행백서』, 『대한민국 대표 맛집 1000』(공저) 등이 있다. 현재 충청남도 농촌체험마을 자문위원, 여행블로그 기자단 우수 회원 등으로도 활동 중이다. 주요기사 부산시, 청년의 날 맞아 부산청년주간 개최…콘퍼런스, 강연&amp;토크 등 행사 진행 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 장윤정 동화책 《모두의 눈 속에 내가 있어요》 “트로트의 여왕이 쓴 꽁냥꽁냥 생활 동화” 한상형 기자 han@lecturernews.com 다른기사 보기 저작권자 © 한국강사신문 무단전재 및 재배포 금지 주요기사 부산시, 청년의 날 맞아 부산청년주간 개최…콘퍼런스, 강연&amp;토크 등 행사 진행 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 하단영역 하단메뉴 신문사 소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 용산구 청파로 269 4층 대표전화 : 02-707-2210 팩스 : 02-707-2214 이메일 : han@lecturernews.com 한국강사신문 사업자 등록번호 : 407-81-30626 개업연월일 : 2016년 5월 15일 발행·편집인 : 한상형 신문사업인터넷신문사업 등록번호 : 서울, 아04090 등록일자 : 2016-05-24 청소년보호책임자 : 정헌희 한국강사신문을 통해 제공되는 모든 콘텐츠(뉴스, 사진, 동영상 등)는 무단 사용, 복사, 배포 시 저작권법에 저해되며, 법적 제재를 받을 수 있습니다. Copyright © 2022 한국강사신문. All rights reserved. mail to han@lecturernews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정헌희 02-707-2210 han@lecturernews.com 위로 전체메뉴 전체기사 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 커뮤니티 신문사 소개 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 문화관광해설사협회 창립 17주년 기념행사 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:25 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 문화관광해설사협회 창립 17주년 기념행사 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도 문화관광해설사협회 창립 17주년 기념행사 개최 문유미 기자 승인 2018.08.13 19:14 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 문화관광해설사협회(회장 좌동열)는 지난 9일 제주웰컴센터에서   전성태 제주도 행정부지사와 김태석 제주도의회 의장, 도내 문화관광해설사 150여 명 등이 참석한 가운데 창립 17주년 기념행사를 진행했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다 서울경제 서울경제TV SEN Plus 한국일보 리드온 회원가입 로그인 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 (생) 실전매매의 정수 시즌2오전 10:00 - 오전 11:00 (생) 오! 지금 이 종목오전 11:00 - 오후 12:00 사이트맵 사이트맵 닫기 검색 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 IR클럽 ON AIR 통합 검색 검색 PLUS 바로가기 제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다 경제·사회 입력 2018-08-27 17:57:00 수정 2018-08-27 18:00:12 방현준 기자 0개 가 가 가 가 제주특별자치도와 도 관광협회가 9월 한달 동안 제주를 찾은 관광객들에게 풍성한 혜택을 제공한다. 다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위해 마련된 이번 이벤트에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 이번 행사에 참여한다. 이들 업체는 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 행사기간 중 탐나오를 통해 숙박업, 관광지, 기념품, 음식점 등의 관광상품을 구매할 경우 최저 4%에서 70%에 이르는 할인 혜택이 주어지며 일부 렌터카의 경우 90%까지 할인 받을 수 있다. 면세점, 대형마트, 지하상가, 쇼핑거리 등 참여업체 방문 시에도 다양한 할인과 추가 혜택이 제공된다. 또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 9월에는 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 개최 예정이어서 이번 이벤트가 축제의 재미를 배가해줄 것으로 기대된다. 이 밖에도 행사 참여업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다. 제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. 한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으로써 온라인 참여를 유도할 예정이다. 자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트나 어플에서 확인하면 된다./방현준기자hj0608@sedaily.com [ⓒ 서울경제TV(www.sentv.co.kr), 무단 전재 및 재배포 금지] 가 가 가 가 관련뉴스 가온아이피엠, 통합해충방제 솔루션 전문기업 도약 위한 CI 공개 컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 구광모 LG 회장, 폴란드 총리 만나 '부산엑스포' 지지 요청 SKT, 컬쳐브랜드 '0' 대상 고객 확대…MZ세대 공략 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 열어…“현지 시장 공략” 삼성전자 "2027년 1.4나노 양산"…파운드리 경쟁력 강화 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 수젠텍, 2022 한국전자전 이노베이션 어워드 수상 와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 한화투자證, ‘금융상식 테스트’ 이벤트 실시 스튜디오산타클로스, 부당이득금 반환금 53억 승소 신한투자증권, 10월 신입사원 채용설명회 개최 컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 구광모 LG 회장, 폴란드 총리 만나 '부산엑스포' 지지 요청 SKT, 컬쳐브랜드 '0' 대상 고객 확대…MZ세대 공략 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 열어…“현지 시장 공략” 삼성전자 "2027년 1.4나노 양산"…파운드리 경쟁력 강화 DL건설, 'e편한세상 사천 스카이마리나' 1순위 청약접수 진행 알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 [SEN부동산 캘린더] 10월 1주차 신규 단지 공급 일정 ‘화성 조암 스위트엠’, 11일 특공 청약 [인사] ABL생명 ‘금융사고예방 직접 챙기기’ 나선 권준학 NH농협은행장 카카오뱅크 중신용대출 금리 최대 0.50%p 인하 KB국민카드 태국 현지 법인, 삼성전자 파이낸스 플러스 서비스 런칭 하나손해보험, 서울시와 ‘ESG모빌리티를 활용한 에코플러스 지원사업’ 업무협약 주간 TOP뉴스 1르노코리아, 10월 신차 구매 시 특별 할인 혜택 지원 2현대모비스, 차량용 5G 모듈 자체개발…미래 모빌리티 공략 본격화 3뉴욕증시, 국채금리 안정세에 일제히 급등…나스닥 2.27%↑ 4와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 5현대차그룹, 중남미·유럽 5개국 대상 부산세계박람회 유치활동 6포커스미디어, 스타트업 육성 프로그램 '아윌비빽' 모집 7[SEN투자전략]코스피, 반발 매수 유입…"수출 호조 자동차株 주목" 8한국투자證 “롯데쇼핑, 체질개선 통한 경쟁력 강화…양호한 이익 흐름 예상” 9영화 '동굴의 기적' 광명 대표축제 '구름산 예술제'서 시사회 10유안타證 “하이트진로, 맥주 물량 증가에 매출 호조…화물연대 파업에 수익성↓” 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 대형주 주가 확인! 시장 반등세?!│#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-04 (화) 방송 오늘의 공시 분석! #카카오, #세종메디칼│공시분석, 매매전략 GO!수익 작전타임 2022-10-04 (화) 방송 시황브리핑! #5G 섹터에 주목 #오이솔루션│#매매전략, #종목추천 GO!수익 작전타임 2022-10-04 (화) 방송 장인·명장이 ‘인간도서관’…“소상공인에 기술 전수” SEN 경제라이브 2022-10-04 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 11:00 오! 지금 이 종목 생방송 김호빈 PD 권민정 MC 12:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 13:00 부동산 올인원 생방송 정지윤 PD 최슬기 MC 14:00 오늘장 내일장 생방송 성예경 PD 권민정 MC 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 더보기 오늘의 날씨 2022-10-05(수) 03:00 비/눈 마포구 상암동19.0℃ 강수확률 60% 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 신규 프로그램(해외선물의 신 시즌3) 런칭!! 신규 프로그램(윤태진의 허니투데이) 런칭!! 신규 프로그램(민박사의 주식 훈민정음) 런칭!! 회사소개 개인보호정책 광고 및 제휴 안내 기사 구매 안내 고객센터 IR클럽 서울특별시 마포구 월드컵북로 400 서울산업진흥원 3, 4, 8, 9층 SEN 서울경제TV 서울특별시 종로구 율곡로 6, 트윈트리빌딩 비동 16층(중학동) 제호 : SEN서울경제TV 등록번호 : 서울, 아52887 등록일 : 2020년 02월 19일 발행인 및 편집인 : 이상석 고객센터 : 1577-7451 사업자등록번호 : 107-81-84028 통신판매업신고번호 : 제 2018-서울종로-0855호 대표자 성명 : 이상석 Copyright 2012 ⓒ ㈜서울경제티브이 Corp. All Rights Reserved. 서울경제TV SEN ON AIR 편성표 VOD 소개 프로그램 정보 VOD 더보기 온에어 팝업창 닫기 온에어 팝업창 넓게 펼치기 접기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 수젠텍, 2022 한국전자전 이노베이션 어워드 수상 와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 한화투자證, ‘금융상식 테스트’ 이벤트 실시 스튜디오산타클로스, 부당이득금 반환금 53억 승소 신한투자증권, 10월 신입사원 채용설명회 개최 컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 구광모 LG 회장, 폴란드 총리 만나 '부산엑스포' 지지 요청 SKT, 컬쳐브랜드 '0' 대상 고객 확대…MZ세대 공략 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 열어…“현지 시장 공략” 삼성전자 "2027년 1.4나노 양산"…파운드리 경쟁력 강화 DL건설, 'e편한세상 사천 스카이마리나' 1순위 청약접수 진행 알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 [SEN부동산 캘린더] 10월 1주차 신규 단지 공급 일정 ‘화성 조암 스위트엠’, 11일 특공 청약 [인사] ABL생명 ‘금융사고예방 직접 챙기기’ 나선 권준학 NH농협은행장 카카오뱅크 중신용대출 금리 최대 0.50%p 인하 KB국민카드 태국 현지 법인, 삼성전자 파이낸스 플러스 서비스 런칭 하나손해보험, 서울시와 ‘ESG모빌리티를 활용한 에코플러스 지원사업’ 업무협약 주간 TOP뉴스 1르노코리아, 10월 신차 구매 시 특별 할인 혜택 지원 2현대모비스, 차량용 5G 모듈 자체개발…미래 모빌리티 공략 본격화 3뉴욕증시, 국채금리 안정세에 일제히 급등…나스닥 2.27%↑ 4와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 5현대차그룹, 중남미·유럽 5개국 대상 부산세계박람회 유치활동 6포커스미디어, 스타트업 육성 프로그램 '아윌비빽' 모집 7[SEN투자전략]코스피, 반발 매수 유입…"수출 호조 자동차株 주목" 8한국투자證 “롯데쇼핑, 체질개선 통한 경쟁력 강화…양호한 이익 흐름 예상” 9영화 '동굴의 기적' 광명 대표축제 '구름산 예술제'서 시사회 10유안타證 “하이트진로, 맥주 물량 증가에 매출 호조…화물연대 파업에 수익성↓” 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 대형주 주가 확인! 시장 반등세?!│#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-04 (화) 방송 오늘의 공시 분석! #카카오, #세종메디칼│공시분석, 매매전략 GO!수익 작전타임 2022-10-04 (화) 방송 시황브리핑! #5G 섹터에 주목 #오이솔루션│#매매전략, #종목추천 GO!수익 작전타임 2022-10-04 (화) 방송 장인·명장이 ‘인간도서관’…“소상공인에 기술 전수” SEN 경제라이브 2022-10-04 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 11:00 오! 지금 이 종목 생방송 김호빈 PD 권민정 MC 12:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 13:00 부동산 올인원 생방송 정지윤 PD 최슬기 MC 14:00 오늘장 내일장 생방송 성예경 PD 권민정 MC 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 더보기 오늘의 날씨 2022-10-05(수) 03:00 비/눈 마포구 상암동19.0℃ 강수확률 60% 주가와 시세 전일 종가 기준 톰슨로이터(Refinitiv) 해외 주가지수 국제 외환시세 국제 원자재시세 국제 금리시세 종목 가격 전일대비 DOW 25,798.42 352.40 S&amp;P 500 2,809.91 102.00 Nasdaq 7,655.48 99.00 Nikkei 22,841.12 33.00 HIS 25,462.33 33.12 종목 가격 전일대비 USD/KRW 1,115.00 5.40 USD/JPY 112.25 3.40 EUR/USD 1.1532 0.0042 GBP/USD 1.3110 0.0034 USD/CNY 6.9234 0.0119 종목 가격 전일대비 금 (Gold) 1,227.3 3.33 은 (Silver) 14.33 1.22 동 (Copper) 2.7735 0.003 원유 (WTI) 71.25 1.23 원유 (Brent) 80.94 1.23 원유 (Dubai) 70.33 1.23 종목 가격 전일대비 3개월 USD Libor 2.44456 3개월 EURIBOR 0.318 3개월 JPY Libor 0.08350 3개월 GBP Libor 0.08350</t>
-  </si>
-  <si>
-    <t>태풍 솔릭 피해 상황, 제주도 실종 관광객 수색 난항…건설 현장 초토화(사건반장) 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 태풍 솔릭 피해 상황, 제주도 실종 관광객 수색 난항…건설 현장 초토화(사건반장)2018. 08.23(목) 16:34 태풍 솔릭 피해 [티브이데일리 한예지 기자] 19호 태풍 솔릭 피해 현장이 공개됐다. 23일 방송된 종합편성채널 JTBC 시사프로그램 '사건반장'에서는 태풍 솔릭 피해 현장을 다뤘다. 이날 6년만에 한반도를 관통하는 19호 태풍 솔릭이 제주도에 상륙했고 점차 육지 쪽으로 이동 중이다. 태풍 솔릭 북상 속도가 예상보다 늦춰지며 제주도는 여전히 강풍에 휩싸이고 있다. 제주도 태풍 솔릭 피해 현장을 살펴보니 처참하게 변한 건설 현장이 눈길을 끌었다. 전체 외벽 감싸던 철제 구조물은 맥없이 엿가락처럼 휘어졌고, 건물 앞 쪽에 있던 돌덩이도 강력한 바람에 조금씩 떨어져 나갔다. 제주도 태풍 솔릭 피해 현장에는 바람으로 인해 휘어진 신호등도 눈길을 끌었다. 전날 저녁 제주도를 찾은 관광객 한 명도 폭포에서 사진을 찍으려다 강한 파도에 나무 난간이 무너져 내려 실종됐다. 이틀째 해경과 소방인력 등 60여명이 투입됐지만 수색 작업은 거센 바람과 파도로 난항을 겪고 있다. 강풍으로 오늘까지 정전 피해를 입은 가구 수만 9620여 가구다. 가로수가 쓰러져 도로를 가로막는가 하면, 건물 유리창과 간판이 잇따라 파손되고 있다. 선박과 비행기도 모두 결항되며 제주도의 하늘길과 바닷길이 모두 막힌 상태다. 전문가에 따르면 태풍 솔릭 이동 속도가 계속 떨어지는 이유에 대해 "19호 태풍 솔릭이 북상하고 있는데 일본 쪽으로 북상하는 20호 태풍 시마론이 있다. 일본으로 북상하며 우리나라 상층에 있는 북태평양 고기압을 서쪽으로 밀어주는 역할을 한다. 우리나라에 상층에 있던 북태평양 고기압이 서쪽으로 확장되며 19호 태풍 솔릭이 북상하는 것을 저지하는 역할을 한다. 그래서 태풍 속도가 4km로 늘어지는 것으로 보인다"고 했다. [티브이데일리 한예지 기자 news@tvdaily.co.kr/사진=JTBC 방송화면 캡처]기사제보 news@tvdaily.co.kr        한예지 기자의 다른 기사 보기 키워드 : 실시간이슈 '킹덤' 궁금하시죠? 김성훈 감독이 밝힌 비하인드 스토리 [이슈&amp;톡] '킹덤' 외신도 극찬, 전세계 매료시킬 '韓 좀비물'의 탄생 [TD현장 종합] '킹덤', 공개 전부터 시즌2 확정된 김은희 작가표 '역사물+크리쳐' [TD현장 종합] '킹덤' 김성훈 감독 "배두나, 사람 마음 얻는 진정성 가진 배우" 극찬 [TD현장] [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→춘사영화제 불참'마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [이슈&amp;톡] 뒤늦게 연애리얼리티 열풍 합류한 디플, 기대와 우려… 열애설 수습 나선 박민영, 석연치 않은 해명에 등돌… '불타는 트롯맨' vs '미스터트롯2', 패널 눈치… 코인 자본 흡수한 K-컬처 시장의 빛과 그림자 [엔… 두나무X하이브·YG플러스 만남, K-팝 새 시장 창… 결혼 앞둔 지연♥황재균, 애정 가득 헬스… '작은 아씨들' 엄기준 자살→김고은 70… '황금가면' 이중문, 나영희에 일침 "S… "너무 무례" 박은지, 늦은밤 경비실 인… '작은 아씨들' 남지현·위하준, 엄기준 … 김선호 미공개 사진 대방출, 밝은 미소 … '갑상선 유두암 완치' 박소담, 라디오 … [TD포토+] 소연-이청아-서현 '불…[TD포토+] 임윤아의 든든한 응원 … 러시아 래퍼, 푸틴 '동원령'에 반발→극단적 선택 두아 리파X트레버 노아, 열애설 부인 "… 두아 리파, 11살 연상 유명 코미디언과… 美 유명 래퍼 쿨리오 사망 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
-  </si>
-  <si>
-    <t>‘솔릭 피해’ 제주도 실종 여성, 24일 현재까지 발견못해…관광 도중 사진 찍다 파도 휩쓸려 - 김현서 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:17 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 ‘솔릭 피해’ 제주도 실종 여성, 24일 현재까지 발견못해…관광 도중 사진 찍다 파도 휩쓸려 김현서 기자 승인 2018.08.24 12:31 댓글 제보하기 반론요청 이 기사를 공유합니다 × 제19호 태풍 ‘솔릭’이 한반도를 강타하며 곳곳에서 실종자와 부상자가 발생했다. 24일 중앙재난안전대책본부(중대본) 측은 지난 22일 오후 제주도 서귀포시에 위치한 소정방폭포 인근에서 A(23)양과 B(31)씨가 파도에 휩쓸렸다고 전했다. 이 사고로 A양은 실종됐으며 B씨는 부상을 당한 상태다. 관광객 신분인 두 사람은 당시 사진을 찍던 도중 파도에 휩쓸린 것으로 알려졌다. 뉴시스 제공 파도에 휩쓸린 뒤, B씨는 자력으로 빠져나와 신고한 후 인근 병원으로 옮겨 졌다. 현재까지 A양은 발견되지 않았으며 서귀표해경이 수색 작업을 진행하고 있다. 김현서 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #제주도 #태풍 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/24 12:31 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘JTBC 뉴스룸’, 현재 제주도 상황 전해…’실종-정전-결항 등 피해 속출’ 제주도 실종 여성, 해경 26명 포함 총 60명이 수색 中…‘사고의 원인은 사진?’ 제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 ‘수요미식회’ B1A4 산들X한영X황석정, 영덕식과 서울식 안주 물회-제주도식 전복 물회 ‘수요미식회’ 단계별 물회, 속초 오징어물회- 포항 물회-제주도 자리돔물회 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
-  </si>
-  <si>
-    <t>제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 - 박세아 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:17 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 박세아 기자 승인 2018.08.23 06:21 댓글 제보하기 반론요청 이 기사를 공유합니다 × 태풍 ‘솔릭’이 제주도를 강타해 피해 소식이 연이어 전해지고 있다. 23일 제주도 재난안전대책본부와 서귀포해양경찰서 등에 따르면 지난 22일 오후 7시 19분께 서귀포시 소정방폭포에서 박모(23)씨와 이모(31)씨가 파도에 휩쓸려 바다에 빠졌다. 이 씨는 스스로 바다에서 빠져나와 신고, 도움을 요청했으며 박 씨는 현재까지 실종된 상태다. 해경과 소방대원, 경찰 등은 현장에서 수색을 벌이고 있지만 태풍 영향으로 바람이 강하게 불고 파도가 높아 실종자를 찾는 데 어려움을 겪고 있다. 해경은 이들이 폭포에서 사진을 찍으려고 계단으로 내려갔다가 사고를 당한 것으로 보고 있다. 정전도 도내 곳곳에서 발생했다. 한국전력 제주지역본부에 따르면 이번 태풍으로 제주에서 지난 22일부터 이날 오전 5시 현재까지 총 4천 500여 가구가 정전됐다. 연합뉴스 제공 이 가운데 현재 전력 복구가 되지 않은 곳은 서귀포 시내와 안덕면, 대정읍, 표선면 일대 총 4천 9가구에 달한다. 서귀포시 안덕면 사계리 일부 가구는 전날 오후 8시 17분께부터 9시간 넘게 정전이 이어지면서 주민들이 큰 불편을 겪고 있다. 서귀포시 색달동 일대와 안덕면 일부 지역 522가구는 정전이 복구된 상태다. 한전 관계자는 “강풍으로 인해 전선이 끊어져 정전된 것으로 보인다”며 “복구작업을 벌이고 있지만, 비바람이 워낙 강해서 애를 먹고 있다”고 말했다. 한편, 제주도와 일부 남해안에는 최대풍속 초속 20ｍ 내외, 제주도 산지에는 최대순간풍속 초속 400ｍ 내외의 매우 강한 바람이 불고 있다.박세아 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #제주도 #태풍 #피해 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/23 06:21 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 태풍에 김해공항 항공기 결항... 부산 선박 입출항·여객선 운행까지 차질 태풍 솔릭·시마론 상륙... 대한항공 결항편 안내 ‘비상대응체제 구축’ 경기도교육청, 태풍 ‘솔릭’ 피해 예상 시 등하교 시간 조정·휴교 대한상공회의소 자격평가사업단, 태풍에 따른 상시검정 유의사항 안내…확인 必 태풍 솔릭-시마론 진로 예상, 기상청 날씨누리가 발표한 위치 이동 경로는?…23일 목포 해상 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
-  </si>
-  <si>
-    <t>제주도 인기 관광지 1위, 협재 해수욕장…‘비양도 한 눈에’ - 양인정 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:17 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 제주도 인기 관광지 1위, 협재 해수욕장…‘비양도 한 눈에’ 양인정 기자 승인 2018.08.14 12:50 댓글 제보하기 반론요청 이 기사를 공유합니다 × 현대엠엔소프트는 지난해 7월부터 8월까지 두 달간 스마트폰 내비게이션 앱 ‘맵피’의 목적지 검색어 데이터 1000위를 분석해 ‘제주도 인기 여행지’를 최근 공개했다. 현대엠엔소프트의 분석 결과 사람들이 가장 많이 찾은 제주도 인기 여행지 1위는 협재 해수욕장인 것으로 드러났다. 협재 해수욕장은 조개껍질이 많아 은빛으로 반짝이는 백사장과 에메랄드빛 해변이 넓게 펼쳐져 있는 이국적인 분위기로 유명하다. 특히 한 눈에 보이는 비양도와 해질녘 붉은 노을이 장관을 이뤄 일몰 명소로도 잘 알려져 있다. 푸른 바다 사이에 성채와 같은 모습으로 우뚝 솟아 있는 성산일출봉이 2위를 차지했다. 성산일출봉은 해발 182m 높이에서 내려다보는 일출 광경이 아름다워 외국인 관광객들도 많이 찾는 관광지다. 3위는 제주도 서귀포의 3대 폭포 중 가장 큰 규모를 자랑하는 천지연폭포였다. 높이 22m, 너비 12m, 수심 20cm에 달하는 천지연폭포는 울창한 상록수에 둘러싸여 있어 시원한 폭포 소리와 함께 상쾌한 공기를 마실 수 있다. 뉴시스 이외에도 관광객들은 섭지코지, 에코랜드, 용두암, 주상절리, 만장굴 등의 장소를 많이 방문했다. 현대엠엔소프트는 제주도 여행의 추억을 아름다운 사진으로 남길 수 있는 ‘인생샷 명소’도 공개했다. 월정리 해변은 곳곳에 형형색색의 나무 의자가 있어 멋스러운 사진을 찍을 수 있고 제주도 인기 장소 9위에 오른 이호테우 해변은 몽환적인 분위기의 황금빛 노을을 배경으로 그림 같은 사진을 찍을 수 있다. 양인정 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #비양도 #제주도 #협재해수욕장 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/14 12:50 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘섹시의 아이콘’ 경리, 제주도 여행 중 완벽한 뒤태 뽐내…‘너무 마른 몸매’ “제주도에서 여름 휴가”…빅스(VIXX) 엔, 일상 공개 제주도, 제주 실종 여성 사건 이후 바닷가 항·포구에서 캠핑 금지 제주도 실종 여성 사건 이후, ‘난민 범죄’ 관련 게시물 올라와…사회 내 불안감↑ 제주도 실종 여성 사망사건, 해당 발생지역 안전점검 이뤄지지 않아…‘방파제 주변 지역 주민과 남편 불화 있어’ 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
-  </si>
-  <si>
-    <t>9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 글로벌모터즈 온타임즈 PDF지면보기 English 中文 유통경제 facebook twitter youtube 검색 메뉴 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 공유 2 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 전안나 기자 입력2018-08-20 18:10 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점이미지 확대보기제주관광공사 시내 면세점. 사진=제주관광공사. [글로벌이코노믹 전안나 기자] 그칠 줄 몰랐던 한여름 무더위도 결국 떠났다. 그래도 한낮 가을 뙤약볕을 무시하다간 큰 코 다치기 십상. 곡식이 무르익도록 마지막 힘을 쥐어짜는 가을볕이 여름볕보다 더 열정적일지 모른다. 이 때, 새벽부터 시작된 여정을 잠시 멈추고 여유로운 쇼핑을 해보는 건 어떨까. 제주관광공사 중문면세점과 신화월드 시내면세점은 연중무휴로 내국인 및 외국인이 모두 이용가능하다. 국내선을 이용할 경우 중문관광단지내 ICC제주국제컨벤션센터의 중문면세점을, 해외로 출국할 경우 신화월드에 입점한 시내 면세점에서 다양한 상품을 만나볼 수 있다. 제주에서의 즐거운 여행과 저렴한 가격으로 만나는 면세쇼핑은 제주여행의 또다른 묘미. 매월 세일 이벤트가 있지만, 추석이 다가오는 9월은 특별 프로모션이 준비되어 있으니, 필요하거나 꼭 갖고 싶은 물건을 좋은 조건으로 득템하는 기회를 잡아보자. ▪ 위치 : 중문면세점 : 서귀포시 중문관광로224 제주국제컨벤션센타 1F신화월드 시내면세점 : 서귀포시 안덕면 신화역사로304번길 38 전안나 기자 jan0206@g-enews.com 요르단 뉴스 기본정보 무역 투자 비즈니스 여행 요르단 투자시 세금감면제도 알아보기 2021.09.15 한-요르단 스마트팜 기술 웨비나 현장 스케치 2021.07.14 요르단 한국식품 온오프라인 판촉전 현장 스케치 2021.07.01 2021년 요르단 예산안 현황 및 분석 2021.06.17 2021년 시리아 정치 경제 동향 2021.05.05 헤드라인 뉴스 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 "美 중간 선거 후 한국산 전기차 차별 해소 가능성" 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 더 커져 돌아온 러버덕…롯데월드타워서 '해골덕' 찾아보세요~ 2 딸기맛우유 잔망루피 에디션부터 AGE20’s 팩트까지 3 화성 제약회사 공장서 폭발로 화재…1명 사망 4 쿠팡 '레고X오은영' 기획전부터 신세계인터 멤버십 위크까지 5 '노브랜드·피코크' 가격동결 선언부터 '모두 올영' 캠페인까지 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 유통경제 실시간 뉴스 0분전 이마트 트레이더스 '트레이더스 홀세일 클럽'으로 전면개편…혁신 성장 승부수 역대급 엔저에 日 직구 뜬다…롯데면세점, 일본직구관 오픈 풋살장에 어린이수영장까지…홈플러스, 오프라인 경쟁력 강화 20시간전 "깨끗한 도시 함께 만들어요"…롯데百 ‘시티 플로깅’ CJ대한통운, 말레이서 CJ센츄리로지스틱스로 물류사업통합…시장지배 강화 화성 제약회사 공장서 폭발로 화재…1명 사망 3일전 농협경제지주 하반기 신규직원 채용···'4년만에 R&amp;D분야도 실시' '필라이트 체리'부터 알레그리 팝업스토어까지 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 글로벌모터즈 온타임즈 PDF지면보기 English 中文 부동산·공기업 facebook twitter youtube 검색 메뉴 건설·부동산 분양 공기업 부동산일반 공유 0 제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 전안나 기자 입력2018-08-21 14:05 제주특별자치도관광협회 김영진 회장(오른쪽)과 몽골아시아문화예술관광협회 촐롱바트 뭉흐졸 회장이 20일 몽골 울란바토르에서 우호교류 협약식을 체결한 후 기념사진을 촬영하고 있다.[글로벌이코노믹 전안나 기자] 제주특별자치도와 도관광협회(회장 김영진)는 몽골 아시아문화예술관광협회(회장 촐롱바트 뭉흐졸)와 손잡고 관광·문화·스포츠와 연계한 비즈니스 네트워크를 확대한다. 제주도관광협회는 20일 몽골 울란바토르에서 몽골 아시아문화관광협회와 상호 협력을 위한 우호 교류협약을 체결했다고 밝혔다. 이번 협약식에는 촐롱바트 뭉흐졸 아시아문화예술관광협회장(ACATA) 및 몽골 환경관광국 밧 에르덴 석희 관광국장을 비롯한 방한상품 취급 현지 주요여행업계 대표, 미야트 항공사 및 몽골 KCBN 방송 등 주요 언론매체 등이 참가했다. 제주도관광협회는 이날 협약식 후 현지 여행업계와 언론사를 대상으로 제주의 고부가가치 휴양 관광상품을 소개하는 설명회를 개최했다. 이번 협약에 따라 제주도에서 개최되는 주요 축제와 몽골의 나담축제 간 상호 정기적인 교차교류를 명문화 하는 등 실질적 시장 확대를 위한 교두보를 마련하는 계기가 될 것으로 기대된다. 제주도관광협회 관계자는 "앞으로 몽골과 매년 추진되고 있는 하계시즌 직항 전세기 운항을 더욱 더 확대하고 특히 경유상품을 업계와 공동 개발하여 시즌에 한정되지 않고 몽골 관광객이 제주를 더욱 쉽게 접근할 수 있도록 도내 관광사업체를 대상으로 실질적인 네트워크 구축 체계로 이어지도록 적극 노력 할 것"이라고 말했다. 전안나 기자 jan0206@g-enews.com 멕시코 뉴스 기본정보 무역 투자 비즈니스 여행 2022년 멕시코 조세 개혁 2021.11.20 2021 멕시코 보안 전시회(Expo Seguridad) 참관기 2021.11.20 2021년 멕시코 뷰티 전시회(EBS) 참관기 2021.11.09 멕시코 국세청, 물류증빙(Carta Porte)제도 신규 도입 2021.11.06 2021 멕시코 건축자재 전시회(EXPO CHIAC) 참관기 2021.11.02 헤드라인 뉴스 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 "美 중간 선거 후 한국산 전기차 차별 해소 가능성" 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 대우건설, 필리핀 할루어댐 모래·자갈 채취 비용 미지급 '논란' 2 재건축 부담금 절반으로 '확' 줄인다 3 서울 아파트값 10년 만에 최대폭으로 떨어졌다 4 세계 최대 호텔그룹 '윈덤', 강원도 고성과 만났다 5 10월부터 전기요금 ㎾h당 7.4원 오른다 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 부동산·공기업 실시간 뉴스 1시간전 대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 '구슬땀' GS건설, 베트남서 신도시건설로 도로파손…현지인들로부터 ‘뭇매’ 한국마사회 영천경마공원 기공식 성료 3일전 10월부터 전기요금 ㎾h당 7.4원 오른다 롯데건설 '지능형 스마트 계측기술' 공동개발 2030 올들어 떼인 전세보증금 벌써 3400억 '훌쩍' 3일전 대우건설, 한남2구역 조합원 이주비 10억 보장 포스코건설, '더샵 광양라크포엠' 5일 1순위 청약 예정 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+    <t>제주도, 하반기 관광진흥기금 500억 융자지원 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 하반기 관광진흥기금 500억 융자지원 등록 2018.08.30 09:51:59 작게 크게 제주도 CI.【제주=뉴시스】강정만 기자 = 제주특별자치도는 올해 하반기 관광진흥기금 500억원을 융자지원 한다고 30일 밝혔다. 이번 지원되는 융자는 관광객이용시설업과 관광편의시설업 등의 건설자금 100억원, 숙박업과 관광시설 등의 개보수자금 100억원, 숙박업과 관광시설 등의 개보수 자금 100억원이다. 또 관광사업체의 경영안정자금과 노후 전세버스 교체 자금으로 300억원이 지원된다. 융자기간은 건설·개보수는 2년거치 3년상환, 경영안정자금은 1년거치 3년상환, 노후전세버스 교체자금은 2년거치 3년상환이다. 대출금리는 기획재정부에서 분기별로 공지하는 '공공자금관리기금 융자사업 변동금리(공자금리)'에서 0.75% 우대 변동금리가 적용된다. 도는 이에 따라 오는 31일부터 9월7일까지 도 관광정책과, 행정시 관광진흥과, 도 관광협회 등을 통해 융자신청을 받는다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 9월부터 매달 1차례 ‘팜팜버스’ 운영 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 9월부터 매달 1차례 ‘팜팜버스’ 운영 김형훈 기자 승인 2018.08.30 16:23 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 팜팜버스가 9월부터 11월까지 매달 한차례 운영된다. 제주도관광협회는 9월 1일부터 팜팜버스를 운영한다고 밝혔다. 팜팜버스는 제주도내 농어촌 관광 콘텐츠를 활용한 상품이다. 팜팜버스는 명도암 참살이마을, 낙천아홉굿의자마을, 예래생태마을, 신흥2리 동백마을, 유수암마을을 대상으로 운영되고 있다. 9월 1일은 유수암마을과 명도암 참살이마을을 둘러보게 된다. 참가자들은 유수암마을에서 편백나무로 만드는 목공체험과 유기농 채소 가루를 섞어 만드는 삼색 수제비 만들기 체험을 하게 된다. 명도암 참살이마을 체험은 직접 양들과 교감할 수 있는 먹이 주기 체험과 양모 기름으로 비누 만들기 체험, 양 캐릭터 주먹밥 만들기 체험 등이다. 참가 신청 및 자세한 일정 안내는 제주여행 오픈마켓 탐나오(www.tamnao.com)에서만 가능하다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 몽골과 관광·문화·스포츠 교류협약 체결 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 몽골과 관광·문화·스포츠 교류협약 체결 파이낸셜뉴스입력 2018.08.21 16:23수정 2018.08.21 16:23 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도·제주도관광협회-몽골 아시아문화예술관광협회몽골 직항 전세기 확대·휴양 관광상품 설명회도 개최 [제주=좌승훈기자] 제주도와 제주도관광협회(회장 김영진)는 20일 몽골 아시아문화예술관광협회(ACATA)와 우호 교류협약을 체결했다 촐롱바트 뭉흐졸 아시아문화예술관광협회장과 몽골 환경관광국 밧 에르덴 석희 관광국장 등이 참석한 가운데 열린 이날 체결식에서 두 지역은 관광·문화·스포츠와 연계된 비즈니스 네트워크 확대와 몽골 관광시장 교두보 구축에 상호 협력키로 했다. 제주도는 체결식에 이어 몽골 주요 여행사 대표, 미야트 항공사 및 몽골 KCBN 방송 관계자 등을 대상으로 제주의 고부가가치 휴양 관광상품 설명회를 개최했다. 제주도관광협회 관계자는 "몽골과 매년 추진되고 있는 여름시즌 직항 전세기 운항을 확대하고, 특히 경유상품을 업계와 공동 개발함으로써 시즌에 한정되지 않고 몽골 관광객이 제주를 더욱 쉽게 찾을 수 있도록 하겠다“고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>9월 제주도 여행 10선...놓치면 후회할 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 9월 제주도 여행 10선...놓치면 후회할 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 9월 제주도 여행 10선...놓치면 후회할 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.08.20 10:27 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사 추천 관광지, 자연, 체험, 축제, 음식 등 선정 제주관광공사(사장 박홍배)는 20일 '선라이즈 &amp; 선셋, 제주의 가을은 눈 뗄 곳이 없다'라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야에서 놓치지 말아야 할 제주 관광 추천 10선을 발표했다. #제주의 가을 아침 1. 밭담 사이사이로 비추는 제주의 햇살– 평대리 일출, 감수굴 밭담길‘내일은 내일의 태양이 뜬다.’ 영화 속 주인공 대사처럼 우리는 떠오르는 해를 보며 어제는 잊고, 새로운 오늘을 살아간다. 제주 동쪽의 평대리는 일출을 만나기 좋은 포인트. 어둠을 밀어내고 솟아오르는 붉은 빛이 평대리 앞바다를 물들이며, 마침내 세상에 빛의 생기를 뿌린다. 따스한 아침햇살이 비추는 이때가 산책하기 좋은 타이밍. 감수굴 밭담길로 향할 차례다. 밭담길로 이어지는 산책 코스를 걸으며 상쾌한 공기를 폐부 깊숙이 들이마셔 보자. 밭담의 돌들이 얼기설기 물려있고, 틈새가 있어 태풍에도 무너지지 않는다. 척박한 환경 속에서 의지하며 살아온 제주민을 닮아서일까. 밭담은 투박하지만 정겹다. 가을 아침, 평대리 밭담 사이사이로 제주 햇살과 풍광을 만끽해보라. 제주민의 삶이 내 안으로 들어온다.▪ 위치 : 제주시 구좌읍 평대리 / 감수굴 밭담길 : 제주시 구좌읍 평대리 중동마을회관(시작점)#제주의 가을 오전 2. 현세와 천국을 넘나드는 곳– 효명사 ‘천국의 문’ 우거진 숲, 얼기설기 엮인 나뭇잎 사이로 한 줄기 빛이 내린다. 그 아래로 드러나는 초록의 이끼들. 숲의 정령이 노니는 파란 카펫이 한라산 중턱, 작은 사찰 효명사 주위 곳곳에 깔려있다. 큰 도로를 벗어나 우거진 숲 속에 자리한 효명사 산신각을 지나 법당 옆길 계단을 내려가면 푸른 이끼가 덮인 아치형 문을 만날 수 있다. 돌계단부터 문 주위까지 온통 푸른빛으로 가득한 문을 넘어서면 이곳이 현실일까, 천국일까 묘한 분위기가 밀려온다. 그래서 사람들은 이 문을 ‘천국의 문 또는 이끼문’이라 부른다. 아직은 사람의 발길이 많이 닿지 않은 자연 그대로의 장소. 뿐만 아니라 효명사 마당 작은 연못과 산책로 주변 계곡이 아기자기해 숨은 한라산의 자연을 만날 수 있다. 현실인 듯 천국인 듯, 나인 듯 내가 아닌 듯. 묘하고 신비로운 경험이 효명사, 그 곳에 있다. ▪ 위치 : 효명사 : 서귀포시 남원읍 516로 815-41 #제주의 가을 오후 3. 가을 뙤약볕 피하고, 득템도 하고– 제주관광공사 중문면세점, 시내면세점 그칠 줄 몰랐던 한여름 무더위도 결국 떠났다. 그래도 한낮 가을 뙤약볕을 무시하다간 큰 코 다치기 십상. 곡식이 무르익도록 마지막 힘을 쥐어짜는 가을볕이 여름볕보다 더 열정적일지 모른다. 이 때, 새벽부터 시작된 여정을 잠시 멈추고 여유로운 쇼핑을 해보는 건 어떨까. 제주관광공사 중문면세점과 신화월드 시내면세점은 연중무휴로 내국인 및 외국인이 모두 이용가능하다. 국내선을 이용할 경우 중문관광단지내 ICC제주국제컨벤션센터의 중문면세점을, 해외로 출국할 경우 신화월드에 입점한 시내 면세점에서 다양한 상품을 만나볼 수 있다. 제주에서의 즐거운 여행과 저렴한 가격으로 만나는 면세쇼핑은 제주여행의 또다른 묘미. 매월 세일 이벤트가 있지만, 추석이 다가오는 9월은 특별 프로모션이 준비되어 있으니, 필요하거나 꼭 갖고 싶은 물건을 좋은 조건으로 득템하는 기회를 잡아보자.▪ 위치 : 중문면세점 : 서귀포시 중문관광로224 제주국제컨벤션센타 1F, 신화월드 시내면세점 : 서귀포시 안덕면 신화역사로304번길 384. 조금 일찍 만나는 감귤의 향기– 귤향과즐 체험 입맛이 슬슬 돌아오는 이때 간사한 사람의 혀는 찬바람 부는 겨울 국민 간식, 새콤달콤 감귤이 생각난다. 허나 아직은 때가 아니다. 그 아쉬움을 달래기에 좋은 방법이 있다. 귤향과즐 체험으로 조금 일찍 귤향을 손과 맛으로 직접 느껴볼 수 있다. ‘과즐’은 제주식 한과라 할 수 있는데 예전의 과즐은 보릿가루 반죽을 기름에 튀기고, 달달한 조청을 발라 좁쌀튀밥 옷을 입혀 만들었다. 최근에는 튀김 반죽에 감귤과즙을 넣어 그 맛이 한층 업그레이드 되었다. 과즐은 달지 않아 질리지 않는 건강한 맛으로 관광객 입맛을 사로잡아, 제2의 제주특산물로 부상 중이다. 귤향과즐을 제조․판매하는 신효생활개선회와 하효살롱에서는 ‘귤향과즐 만들기 체험’을 진행한다. 특히 아이들이 무척 즐거워하는 제주 귤향과즐 만들기로 건강한 간식을 직접 만들어 보자. ▪ 위치 : 신효베스트마을(신효생활개선회) : 서귀포시 신효동 890-2 하효살롱 : 서귀포시 하효동 967-1 귤빛으로 방귤당#제주의 가을 저녁 5. 가을을 머금은 찰나의 풍광을 보라– 문도지오름 높디높은 하늘과 울창한 숲으로 태양이 내려오는 가을이야 말로 저무는 노을을 감상하기에 알맞은 계절. 가을 노을빛은 심도가 더해져 여름보다 진하다. 가을이 머무는 제주를 사방이 뻥 뚫린 곳에서 온 몸으로 느끼며, 일몰을 보고 싶다면 제주시 저지리 문도지오름으로 향해보라. 올레 14-1코스가 지나가는 이 오름은 정상까지 15분이면 충분하다. 고도가 낮은 오름이지만 정상에 올라 주위를 둘러보면 시야가 시원하게 뚫려 돌오름, 당오름, 마중오름 등이 한눈에 보이고 발 아래로는 저지곶자왈이 펼쳐진다. 일몰시간. 여유롭게 풀 뜯는 말들 사이로 하늘은 발그스름 물들기 시작하고, 오름 아래 곶자왈이 붉은 해를 감싸 안는듯 노을은 더욱 눈이 부시다. 360도 다채로운 풍광을 보여주는 문도지오름에 올라 인생샷을 남겨보자. ▪ 위치 : 문도지 오름 : 제주시 한림읍 금악리#제주의 가을 밤 6. 별 하나의 추억, 별 하나의 제주– 서귀포 천문과학문화관, 별빛누리공원높푸른 가을 하늘이 저물어 간다고 아쉬워 말라. 어둠 속에서 별이 빛을 내고 있으니. 서귀포천문과학문화관과 제주별빛누리공원에서 가을 밤하늘을 수놓은 별을 관측할 수 있다. 전시실과 천체투영실에서 별자리와 천문지식을 익히고, 관측실에서 천체망원경으로 별을 두 눈에 담으며 우주에 한 발 가까워진다. 계절에 따라 관측 가능한 별이 달라진다. 별빛누리공원에서는 여름, 가을 별자리를 관측이 예정되어 있다. 서귀포 천문과학문화관에서는 9월 1일 ‘서귀포과학문화축전’이 열린다. 갖가지 과학체험부스가 설치되고 과학 퀴즈, 로켓 발사 실험 등 이벤트로 과학에 쉽게 다가갈 수 있는 기회다. 이번 9월에는 천문대에서 나만의 별 하나를 점 찍어두자. 가을마다 언제나 그 자리에서 빛날 멋진 친구를 얻는 셈이다. ▪ 위치 : 서귀포 천문과학문화관 : 서귀포시 1100로 506-1(14:00~22:00, 월 휴관) 별빛누리공원 : 제주시 오등동 10-34(15:00~23:00, 월 휴관)#제주의 가을 꽃 7. 소박하고 소담스런 소금꽃이 피었습니다– 오라메밀꽃밭 9월 제주에는 때 이른 첫 눈이 내려앉았다. 가을 햇볕을 듬뿍 받고 흐드러지게 핀 새하얀 메밀꽃이 제주시 오라동 들판을 가득 채워서다. 넓은 언덕 들판에 핀 소박하고 소담스런 꽃들이 제주의 파도가 만들어낸 하얀 물거품처럼 가을바람에 물결친다. 그래서 바닷가 어부들은 파도가 일었을 때 부서지는 포말을 ‘메밀꽃이 일다’고 하고, 작가 이효석은 &lt;메밀꽃 필 무렵&gt;에서 달빛 아래 빛나는 희고 작은 메밀꽃을 ‘소금 뿌렸다’고 하지 않았던가. 제주는 전국 최대 메밀 산지다. 척박한 제주 땅에서도 잘 자라고 제주토속음식인 빙떡이나 꿩메밀 칼국수에도 메밀가루가 사용된다. 특히 오라동 메밀밭은 30만평 규모로 전국에서 가장 넓어 장관이다. 메밀꽃밭에 파묻혀 연인과 함께 메밀꽃보다 더 아름다운 사랑의 미소가 담긴 사진 한 컷 남겨보는 건 어떨까.▪ 위치 : 오라메밀꽃밭 : 제주시 오라2동#제주의 가을 人 8. 그의 삶이 빛났던 제주살이를 기억하며– 이중섭의 예술혼 불과 11개월. 격변의 시대 속에서 화가 이중섭이 가족들과 단란한 시간을 보냈던 서귀포 생활은 이토록 짧게 막을 내렸다. 단칸방에서 맨밥으로 허기를 달랬어도, 그는 행복한 기억만 가득했다고 회상했다. 이 시기 이중섭의 그림은 섬, 게, 물고기, 아이들을 소재로 따듯하고 즐거운 분위기가 담겨있다. 서귀포는 그의 예술혼을 기리기 위해 이중섭 문화거리를 조성하고, 그의 거주지 복원과 이중섭 미술관을 건립했다. 이중섭 미술관에서는 ‘소, 사랑하는 모든 것’ 특별기획전이 10월 7일까지 열리고, 이중섭 탄생 100주년 기념 창작오페라 ‘이중섭’ 공연이 9월 6∼8일 서귀포예술의전당 대극장에서 선보인다. 9월 제주여행은 이중섭 관련 문화공연과 전시를 통해 그가 제주에서 꽃피운 예술적 삶을 생각해 보는 기회를 만날 수 있어 더욱 특별하다.▪ 위치 : 이중섭 문화거리 : 서귀포시 서귀동 이중섭 문화거리#제주의 가을 축제 9. 청정 제주를 만나는 가장 확실한 방법– 9월의 에코파티9월 제주를 만나는 또 다른 즐거움 중 하나는 에코파티. 제주에 더 가까이 가 닿을 수 있는 좋은 기회다. 9월 1일 소길리의 ‘소길 풋감 에코파티’를 시작으로 9일 하례1리 ‘힐링하리 에코파티’, 12일 한남리 ‘머체왓 에코파티’, 29일 저지리의 ‘저지곶자왈 에코파티’까지 예정되어 있다. 각 파티의 대표적인 체험은 소길리의 풋감 천연염색, 하례1리의 효돈천 트레킹, 한남리의 머체왓 숲길, 저지리의 곶자왈 탐방. 안내에 따라 마을 역사와 문화를 듣고 깊이 이해하며 청정 생태를 느낀다. 각 마을 특성이 담긴 체험활동과 로컬푸드를 맛보는 소소한 경험도 에코파티의 매력. 곳곳에서 열리는 에코파티는 제주‘탐나오’에서 예약할 수 있으며, 회당 선착순 50명까지 신청 받는다. 제주의 보물 같은 마을을 경험하고 싶다면 서둘러 예약 버튼을 누르시라.▪ 위치 : 소길리 : 제주시 애월읍 소길리 (9/1(토)) / 하례1리 : 서귀포시 남원읍 하례1리(9/9(일)) / 한남리 : 서귀포시 남원읍 한남리(9/12(수)) / 저지리 : 제주시 한경면 저지리(9/29(토))#제주의 가을 음식 10. 진하고 고소한 가을바다의 풍미– 제주 고등어우리네 식탁과 친근한 고등어는 생각보다 까다로운 생선이다. 낚아 올리자마자 죽는 특성으로 고등어회는 산지에서만 즐길 수 있기 때문. 살 오른 제주 가을 고등어는 싱싱한 회가 제격이다. 비린 맛없이 고소한 기름이 입안에 퍼지듯 육질이 부드러운 치즈케익처럼 녹아든다. 제주의 또 다른 별미는 ‘고등어해장국’. 원래 고등어를 주재료로 하는 죽이나 국은 추자도 음식이라고 한다. 고등어해장국은 11년 전 추자도 출신 주인장이 성미식당에서 처음 선보여 지금까지 인기를 끌고 있는 특별 메뉴다. 제주 고등어와 삼치를 뼈째 갈아 넣고 콩나물, 우거지 등과 함께 끓인 얼큰한 맛이다. 이 가을 미식가의 입맛을 사로잡는 제주 고등어회와 유일하게 제주에서만 가능한 고등어해장국 한 그릇으로, 원조 오메가 3를 충전해 보자.▪ 위치 : 성미식당 : 제주시 서광로18길 18 제주관광공사 관계자는 “이번 10선은 가을 제주의 아침부터 해가 저문 밤까지 즐길 수 있는 것을 테마로 소개한다” 며 “해가 뜨고 질 때까지 눈을 뗄 수 없는 제주의 빛나는 가을을 즐겨보시라”고 말했다. 제주관광공사의 9월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다.문의사항 : 제주관광공사 지역관광처(064-740-6971) 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 가을여행, 대표 관광지와 가까운 '제주올레로펜션' &lt; 정보경영 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 12:45 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도 가을여행, 대표 관광지와 가까운 '제주올레로펜션' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정보경영 제주도 가을여행, 대표 관광지와 가까운 '제주올레로펜션' 기자명 박정길 입력 2018.08.27 10:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 최근 여름 성수기를 피해 가을여행으로 휴가를 떠나는 사람들이 많다. 제주도는 매년 가을이면 탐라문화제, 제주 해녀축제 등 다양한 지역축제가 열려 볼거리를 제공한다. 더불어 제주 전역에 억새명소, 갈대명소가 있어 가족, 친구, 연인 등과 함께 사진을 촬영하며 추억을 만들기에 좋다. 제주도 가을여행을 계획한다면 숙소 시설과 서비스, 위치, 주변 편의시설 등을 고려해야 한다. 제주도 제주시에 위치한 제주올레로펜션(대표 금형섭)은 시설, 위치 등을 만족시키고 있어 국내외 많은 여행객들이 찾는 곳이다. 제주공항과 10분 거리에 있어 교통이 편리하고 알작지, 이호테우 해변, 용담해안도로, 용두암 등 제주동서부 유명 관광지와 가깝다. 또한, 애월, 한림, 서귀포 등 제주도 대표 관광지까지 쉽게 다닐 수 있다. 제주올레로펜션은 이호테우 해변 근처에 위치해 전 객실이 오션뷰다. 객실 정면은 전면 유리로 되어 있어 어디에서든지 아름다운 제주도 바다를 감상할 수 있다. 모던하고 세련된 외관을 자랑하며 실내는 삼나무, 편백나무, 제주석 등 최고급 친환경 자재로 꾸며졌다. 객실은 일반형 16평, 복층형 23평 두 가지 타입으로 친구, 연인, 가족 등 최대 6인까지 이용 가능하다. 이와 함께 제주올레로펜션은 이용객들이 펜션 내에서 힐링할 수 있도록 다양한 서비스를 제공한다. 먼저 펜션 내 야외수영장을 9월까지 운영한다. 8월이 지나면 바닷물이 차가워서 물놀이를 즐기기 어려운데 넓고 쾌적한 펜션 야외수영장에서는 제주 바다를 보며 즐거운 시간을 보낼 수 있다. 또한, 9월 29일까지 펜션 야외 테라스에서 라이브 공연을 진행한다. 매주 토요일 오후 6시 30분부터 제주 시립 합창단 창단 멤버 출신인 가수 우종훈이 직접 기타 연주를 하며 노래를 부른다. 금형섭 제주올레로펜션 대표는 "성수기인 여름휴가철을 피해 9월에 가을여행을 즐기는 사람들도 증가하면서 예약 문의도 많아지고 있다"며 "제주올레로펜션에서 안락하고 편안한 휴식을 보낼 수 있도록 서비스를 제공하니 많은 이용 바란다"고 전했다. 박정길 dailykim@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 오름 생태관광 참가자 모집 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 오름 생태관광 참가자 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도, 오름 생태관광 참가자 모집 기자명 허성찬 기자 입력 2018.08.21 10:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 곶자왈 연계 오름 생태관광 프로그램 참가자를 모집한다고 21일 밝혔다.이번 프로그램은 3차(9월12~13일, 9월20~21일, 11월8~9일)에 걸쳐 저지오름, 새별오름, 솔오름, 물영아리오름 등 4개 오름과 곶자왈의 계절에 따라 눈에 띄는 식물과 동물 등을 주제로 삼고 지역주민과 식물전문가를 동행해 오름의 가치를 들여다보게 된다.각 오름의 깃대종을 중심으로 식물 찾기 어플리케이션을 활용한 미션 수행과 자연놀이를 통해 참가자가 직접 오름의 가치를 들여다보게 된다. 아울러 주민해설과 지역튼선 음식체험도 병행된다.참가자 접수는 다음달 2일까지 (사)제주생태관광협회 홈페이지에서 도민 제외 누구나 접수 가능하다.선착순 모집으로 회차별 20~30명이다. 허성찬 기자 jejuhsc@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 일본인 관광객 겨냥 홍보마케팅 강화한다 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 제주도, 일본인 관광객 겨냥 홍보마케팅 강화한다 온라인 기사 2018.08.19 18:21 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 제주를 찾는 일본인 관광객은 지난해 5년만에 증가세로 전환됐다. [사진=제주특별자치도] [제주=일요신문] 박해송 기자 = 제주특별자치도가 일본인 관광객 유치를 위한 홍보마케팅을 강화한다. 제주를 방문하는 일본관광객은 지난해 5년만에 증가세로 전환됐고 올해 7월(잠정) 기준 69.7%로 증가했다. 이에 제주도는 1억2000만명 일본관광시장을 대상으로 하반기 민관합동 마케팅 추진에 총력을 기울일 계획이라고 19일 밝혔다. 주요 홍보마케팅 계획을 보면 제주도, 관광공사, 관광협회, 관광사업체로 구성된 통합홍보단이 도쿄, 오사카, 후쿠오카 지역을 대상으로 현지 여행업계와의 B2B 세일즈, 소비자 대상 홍보 및 상품 판매를 진행한다. 또한 20일부터 24일까지 도쿄에서 개최되는 일본 최대 국제박람회인 ‘Tourism EXPO Japan 2018‘에 참가하며, 10월에는 오사카지역 여행업계 대상 설명회(일정미정), 11월 23일부터 24일까지는 오키나와에서 개최되는 ‘타비페스타’ 여행박람회에 참가한다. 제주관광공사는 오는 24일부터 25일까지 후쿠오카지역 FIT 설명회를 열어 제주의 미(美)와 미(味)를 홍보, 볼거리와 먹거리도 소개할 계획이다. 특히 일본 TBS ‘세계 서머리조트’에 9월 1일과 8일 양일간 제주 특집프로그램 방영, 10월에는 후지TV 대상 제주 취재를 지원하는 등 제주의 매력이 일본 현지 전파를 타고 홍보될 예정이다. 이밖에 일본 젊은 여성층, 가족층의 마음을 사로잡을 수 있는 SNS이벤트, 파워블로거 및 여행사 초청 팸투어, 지역별 FIT설명회도 추진한다. ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 3 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 8 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>태풍 솔릭 제주도 강타, 관광객 1명 실종 등…태풍 피해 속출 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 태풍 솔릭 제주도 강타, 관광객 1명 실종 등…태풍 피해 속출 손영훈 인턴기자 inews@kookje.co.kr |   입력 : 2018-08-23 02:05:46 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 제 19호 태풍 ‘솔릭’이 제주도를 강타하면서 피해가 잇따르고 있다.   연합뉴스 사진 중앙재난안전대책본부는 22일 오후 7시께 제주 서귀포시 소정방 폭포 인근에서 1명이 실종됐다고 밝혔다. 제주도 관광객인 박모씨(23, 여, 서울)는 사진을 찍다가 파도에 휩쓸려 바다에 빠졌다. 현재 해경과 소방대원, 경창 등 밖씨를 찾기 위한 수색이 이어지고 있지만 태풍의 영향으로 수색이 어려운 상태다.태풍으로 인한 피해는 정전까지 이어졌다. 한국전력 제주지역본부에 따르면 태풍으로 1500여가구에서 정전됐다. 서귀포시 안덕면 사계리에서는 4시간 넘게 정전이 이어지며 주민들이 불편함을 호소했다. 서귀포시 중문관광단지 내 도로에서는 도로변 야자수가 쓰러지면서 도로가 통제되는 등 시설물이 파괴되는 피해 역시 속출하고 있다. 제주를 오가는 항로와 해로 역시 난항이다. 여객선 55척, 제주공항 347편이 결항되면서 제주 주민과 관광, 여행객들 역시 피해를 입고 있다. 기상청은 태풍 ‘솔릭’이 23일 오전 9시께 목포 남서쪽 약 150km해상에, 오후 9시께 서산 남남서쪽 약 80km 해상에 도달할 것으로 예측했다. 손영훈 인턴기자 ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [핫이슈] 코로나19 연휴 진단 검사량 급감…코로나 98일 만에 1만 명 밑으로 코로나 이틀째 1만 명대…14주 만에 일요일 최저치 코로나 사망자 닷새 만에 40명대로 올라 코로나 위중증 59일 만에 최저…신규확진 2만 명대 코로나 위중증 58일 만에 최저…해외유입도 감소세 뚜렷 요양병원 대면 면회 재개… 다시 맞잡은 엄마 손 ‘뭉클’ 코로나 이틀째 1만 명대…사망자 63일 만에 10명대 확진자 급감에 한산해진 선별진료소 사람이 안전한 교통문화를 ‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 코로나 백신 피해 리포트 "백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 기획시리즈 고영삼의 인생 이모작…한 번 더 현역 기후위기는 아동권리 위기 김해창교수의 에너지전환 이야기 난치병 환우에 새 생명을 &lt;&gt; 내고장 문화현장 뒤집힌 정치 지형에 지역 현안 어떻게 되나 '명품마을' 혁신을 찾아서 부산시장노년일자리지원센터 부울경을 빛낸 출향인 사람이 안전한 교통문화를 사진가 김홍희의 Korea Now 어린이가 바라는 공약 위기가정 긴급 지원 이야기 공작소-피란수도 부산…1023일간의 이야기 일상 속 수학…산업 속 수학 지금 법원에선 지역이 주도하는 지역혁신 코로나 백신 피해 리포트 해피-업 희망 프로젝트 BTS 엑스포 콘서트 부산 알릴 기회다 UN공원에 잠든 용사들…아직 끝나지 않은 이야기 눈높이 사설 [전체보기] 역대 최악 출산율, 코앞에 닥친 지방소멸 일찍 온 열대야…폭염 피해 예방을 뉴스 분석 [전체보기] 서부산 ‘쇼핑몰 삼각편대(롯데·신세계·현대百)’ 시너지…유통상권 팽창 예고 “지금 임금으론 생활 어렵다” vs “매일 출근도 아니면서…” 박기철의 낱말로 푸는 인문생태학 [전체보기] 분화와 분류 ; 여섯 가지 킹덤 근원과 원천: 에너지의 구분 부산 교육 현장에서 [전체보기] 늘어나는 다문화 학생, 편견과 차별 벗어나 꿈 이룰 수 있게 돕자 50분의 수업, 학생들 꿈과 가능성을 확인하는 시간 스토리텔링&amp;NIE [전체보기] ‘헌책방 골목’ 미군 만화책이 인기만점이었대요 NFT(대체불가토큰)는 복제 불가능한 저작권 증명서랍니다 신통이의 신문 읽기 [전체보기] 지구촌 기후 이변, 탄소배출 줄여달라는 SOS 뉴스인물에 던질 질문 만들면 대화의 기술 쑥쑥 어떻게 생각하십니까 [전체보기] BTS 軍면제 “국격 높여 자격” vs “상대적 박탈감” 포토뉴스 [전체보기] “희귀종 댕구알버섯, 또 찾았어요” 지리산 자락 산양삼 씨앗 따기 오늘의 날씨- [전체보기] 오늘의 날씨- 2022년 10월 11일 오늘의 날씨- 2022년 10월 10일 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 도 관광협회 “가을철, 9월 국내여행은 제주도에서 풍성하게!” &lt; 유통 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 도 관광협회 “가을철, 9월 국내여행은 제주도에서 풍성하게!” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 유통 제주도, 도 관광협회 “가을철, 9월 국내여행은 제주도에서 풍성하게!” 기자명 이수호 기자 승인 2018.08.17 11:55 댓글 0 조회수 : 2157 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 도 관광협회는 다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위한 다양한 이벤트를 추진한다고 밝혔다. 이번 행사에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 참여한다. 해당 업체 들은 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 이에 행사기간 중 제주도를 방문하는 관광객이 탐나오를 통해 숙박업, 관광지, 기념품, 음식점 등의 관광상품을 구매할 경우 최저 4%에서 70%에 이르는 할인 혜택을 누릴 수 있고 일부 렌터카의 경우 90%까지 할인 받을 수 있다. 면세점, 대형마트, 지하상가, 쇼핑거리 등 참여업체 방문 시에도 다양한 할인과 추가 혜택이 제공된다. 또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 9월 중 개최 예정으로, 이번 이벤트가 축제의 즐거움을 더해줄 것으로 기대된다. 행사 참여업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다. 한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으로써 온라인 참여를 유도할 예정이다. 제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. 자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트 및 어플에서 확인할 수 있다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·제주도 관광협회, 9월 이벤트 개최…할인 혜택·경품 증정 - 세계일보 Facebook Twitter Naver 전체뉴스 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 인물 인사/동정 부고 오피니언 외부기고 기자수첩 . . 검색 제주도·제주도 관광협회, 9월 이벤트 개최…할인 혜택·경품 증정 1260개 관광사업체 참여 이경하 기자 입력 2018-08-23 17:43:50 수정 2018-08-23 17:51:33 [세계파이낸스=이경하 기자] 제주특별자치도와 제주도 관광협회가 9월 한달 동안 제주를 찾은 관광객들에게 풍성한 혜택을 제공한다.다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위해 마련된 이번 이벤트에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1260곳이 참여한다. 이들 업체는 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다.행사기간 중 탐나오를 통해 숙박업, 관광지, 기념품, 음식점 등의 관광상품을 구매할 경우 최저 4%에서 70%에 이르는 할인 혜택이 주어지며 일부 렌터카의 경우 90%까지 할인 받을 수 있다. 면세점, 대형마트, 지하상가, 쇼핑거리 등 참여업체 방문 시에도 다양한 할인과 추가 혜택이 제공된다.또 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정된다. 9월에는 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 개최 예정이어서 이번 이벤트가 축제의 재미를 배가해줄 것으로 기대된다.이밖에 행사 참여업체를 3회 이상 방문하면 1만5000원 상당의 제주관광이용권도 지급된다.제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다.제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다.한편 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결제 가능하도록 함으로써 온라인 참여를 유도할 예정이다.  자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트나 어플에서 확인하면 된다.lgh0811@segye.com 20180823005754 0511000000000 0 2018-08-23 17:51:55 2018-08-23 17:51:33 0 제주도·제주도 관광협회, 9월 이벤트 개최…할인 혜택·경품 증정 세계파이낸스 이경하 0028f8cc-c883-4815-9315-2c6633fff652 ⓒ 세계비즈 &amp; segyebiz.com, 무단 전재 및 재배포 금지 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오피니언 [기고] 건축만 리모델링? 이젠 보험 리모델링은 선택 [기고] 스타트업 투자 빙하기의 생존 전략 [기고]매파적 연준, 금리인상의 끝은 어디일까 [기고]글로벌 경제, ‘디스토피아’ 그림자 드리워져 [기고]최저치와 최고치를 갈아 치우고 있는 주택시장 [기고] 가업승계와 관련된 세제개편안 [기고]다락같이 오른 소득 대비 주택 금융비용 그래픽뉴스 "‘착오송금 구제법’ 다룰 정무위 면면 촉각" 기획특집 [요즘 뜨는 핫플레이스⑦]NH투자증권 [요즘 뜨는 핫플레이스⑥] 대세는 팝 [요즘뜨는 핫플레이스⑤] 테라스 앉아 [해외서 돌파구 찾는 4대 은행 &lt;下&lt;&gt;下&lt;&gt; 많이 본 뉴스 CSR 벨톤보청기 광명난청센터, 광명 노인의 컴패션, 니카라과 교회 설립 위한 모 우주텍, 기능성 인솔 ‘닥솔’ 아주대 사단법인 좋은변화, KB손해보험와 함 비락, 2022년 초록우산 아이리더 인물 [부고] 장영순 현대이지웰·현대드림투 [부고]심혁(NH투자증권 강남금융센터 [부고]김지준(키움증권 상무)씨 부친 [부고] 김재경(MG손해보험 일반보험 [부고] 김영곤 (우리카드 ESG경영 글씨 크게 글씨 작게 이메일로 보내기 인쇄하기 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 Family Sites 세계일보 스포츠월드 회사소개 광고안내 독자인권위원회 개인정보취급방침 이용자약관 고객센터 RSS 제호: 세계비즈 주소: 서울특별시 용산구 서빙고로 17 등록번호 : 서울 아01555 등록일(발행일) : 2011년 3월 18일 발행/편집인 : 정희택 (대표전화 : 02-2000-1800) 청소년보호 책임자 : 송광섭   | Copyright ⓒ segyebiz.com. All rights reserved. &lt;인터넷신문위원회 윤리강령을 준수합니다.&gt;</t>
+  </si>
+  <si>
+    <t>경인일보 : 제주도, 태풍 솔릭 상륙에 '비상'…관광객 1명 실종·정전·시설물 피해 "새벽이 고비, 피해 늘듯" 경인일보 제보안내 경인일보는 독자 여러분의 소중한 제보를 기다립니다. 제보자 신분은 경인일보 보도 준칙에 의해 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 제보 방법은 홈페이지 외에도 이메일 및 카카오톡을 통해 제보할 수 있습니다. - 이메일 문의 : jebo@kyeongin.com - 카카오톡 ID : @경인일보 개인정보의 수집 및 이용에 대한 안내 수집항목 : 회사명, 이름, 전화번호, 이메일 수집목적 : 본인확인, 접수 및 결과 회신 이용기간 : 원칙적으로 개인정보 수집 및 이용목적이 달성된 후에 해당정보를 지체없이 파기합니다. 개인정보 수집 및 이용에 동의합니다. 기사제보 개인정보 보호를 위해 익명 제보가 가능합니다. 단, 추가 취재가 필요한 제보자는 연락처를 정확히 입력해주시기 바랍니다. *최대 용량 10MB 제보하기 전체메뉴 검색 오피니언 인천 지역 정치 경제 사회 문화 스포츠 로그인 회원가입 뉴스홈 전체기사 정치 경제 사회 문화 스포츠 사람들 기획(경기) 기획(인천) 특집 오피니언 오피니언 홈 사설 참성단 윤인수칼럼 경인칼럼 기명칼럼 데스크칼럼 월요논단 수요광장 경제전망대 춘추 칼럼 전문가칼럼 오늘의 창 노트북 기고 인천 인천 홈 정치 경제 사회 문화생활 지역 남부권 중부권 서부권 동부권 북부권 K스토리 K스토리 이슈&amp;스토리 영상·포토 리얼영상 포토 비주얼 통 큰 시리즈 경인 WIDE 경인 In-Depth 지면보기 구독신청 기사제보 검색 닫기 추천 키워드 전국체전 SSG 랜더스 도서관의 미래 경기도 쌀 수매 코로나 그늘 무형문화재 인천고등법원 경기도 버스 준공영제 제물포 르네상스 지역화폐 예산 1기 신도시 인천e음 캐시백 내가 추천 인천책 경인 WIDE Editor's PICK 장비 고치는데만 일주일… 장애인은 '강제 외출금지' "서서 못가" 아닌 "아예 못가" 인천 남동구민 극한 출근 [경기도 근대문화유산 탐방] 이천 수광리 오름가마 사회 재난·사건사고 제주도, 태풍 솔릭 상륙에 '비상'…관광객 1명 실종·정전·시설물 피해 "새벽이 고비, 피해 늘듯" 입력 2018-08-23 00:44:56 가 가 공유하기 페이스북 카카오톡 네이버 밴드 트위터 url 복사 태풍 솔릭 상륙. 제주도 태풍. 제주도 전역에 태풍경보가 내려진 22일 오후 서귀포시 중문관광단지 내 도로 가에 심어진 야자수가 강풍에 쓰러져 있다. /연합뉴스제주도에 태풍 솔릭이 상륙한 가운데, 태풍 '솔릭'이 제주도를 강타해 관광객이 실종, 정전 등 피해가 속출하고 있다.23일 제주도 재난안전대책본부와 서귀포해양경찰서 등에 따르면 지난 22일 오후 7시 19분께 서귀포시 소정방폭포에서 박모(23·여·서울)씨와 이모(31·제주)씨가 파도에 휩쓸려 바다에 빠졌다.이씨는 스스로 바다에서 빠져나와 신고해 도움을 요청했으며, 박씨는 현재까지 실종된 상태다.해경과 소방대원, 경찰 등은 현장에서 수색을 벌이고 있지만 태풍 영향으로 바람이 강하게 불고 파도가 높아 실종자를 찾는 데 어려움을 겪고 있다.해경은 이들이 폭포에서 사진을 찍으려고 계단으로 내려갔다가 사고를 당한 것으로 보고 있다.아울러 정전도 도내 곳곳에서 발생했다. 한국전력 제주지역본부에 따르면 이번 태풍으로 현재까지 총 1천500여 가구가 정전됐다.이 가운데 서귀포시 안덕면 사계리 344가구, 대정읍 상모리 448가구, 표선면 성읍리 203가구 등 총 995가구가 23일 0시 현재 정전된 상태다.사계리에서는 전날 오후 8시 17분부터 4시간 넘게 정전이 이어져 주민들이 큰 불편을 겪고 있으며 상모리는 오후 10시 42분께, 성읍리는 오후 11시 37분께 정전됐다.오후 9시 30분부터 정전이 이어진 서귀포시 색달동 일대와 안덕면 일부 지역 등 총 362가구는 오후 10시 10분께 복구가 완료됐으며, 제주시 삼양동 180가구도 오후 11시 31분께 정전됐다가 30여분 만에 복구됐다.한전 관계자는 "강풍으로 인해 전선이 끊어져 정전된 것으로 보인다"며 "복구작업을 벌이고 있지만 비바람이 워낙 강해서 애를 먹고 있다"고 말했다.시설물 피해도 속출하고 있다.서귀포시 위미항 방파제에서는 높은 파도에 보강공사용 시설물 91t이 유실되는 피해가 발생했다. 도는 태풍이 지나간 뒤에 정확한 현장상황을 파악할 계획이다.서귀포시 중문관광단지에서는 야자수가 강한 비바람에 부러져 도로로 쓰러지는 일이 잇따라 발생, 도로 통행에 한동안 차질이 빚어졌다.이 밖에도 도내 곳곳에서 신호등이 부러지거나 간판 등이 강풍에 떨어지는 일이 속출해 현장 안전조치가 진행됐다. 제주시 연미마을 입구, 제주시 연삼로 하나로마트앞 사거리 등에서는 신호등이 꺼져서 복구작업을 벌이기도 했다.제주지방기상청에 따르면 현재 제주도 육상 전역과 전 해상에는 태풍경보가 발효 중이며, 태풍이 몰고 온 비바람이 거세게 몰아치고 있다.23일 0시 현재 지점별 강수량은 제주 36.9㎜, 서귀포 60.4㎜, 성산 32.9㎜, 고산 18.7㎜, 유수암 110.5㎜, 산천단 91㎜, 강정 71㎜, 색달 62.5㎜, 한라산 윗세오름 225㎜, 사제비 203㎜, 영실 143㎜ 등이다.바람도 거세게 불어 지점별 최대순간풍속이 현재 제주 초속 24.1ｍ, 서귀포 19.9ｍ, 고산 24ｍ, 성산 21ｍ, 한라산 진달래밭 39.9ｍ, 마라도 33.8ｍ 등을 기록하고 있다.태풍 솔릭은 지난 22일 오후 9시 기준 중심기압 955헥토파스칼(hPa), 중심 부근 최대풍속 초속 40ｍ의 강한 중형태풍으로 서귀포 남남서쪽 150km 해상에서 시속 18km 속도로 북서진 중이다./디지털뉴스부 &lt;저작권자 ⓒ 경인일보 (www.kyeongin.com), 무단전재 및 수집, 재배포 금지&gt; 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘의 경인일보 TODAY PICK 신기술인가 신기루인가 지난 대선 당시 후보들이 직접 플랫폼을 사용하며 열풍을 일으킨 '메타버스(Metaverse)'가 신기루처럼 대중들의 눈앞에서 사라졌다. 관련 기술의 발전과 코로나19 팬데믹이 겹치면서, 가상세계를 통해 현실세계와 같은 사회·경제·문화 활동이 이뤄질 것이란 기대가 컸다. 그러나 선거가 끝나자마자 정치인들도 메타버스 플랫폼에서 자취를 감췄고, 대중들 역시 코로나 엔데믹 여파로 이에 대한 관심을 접어두고 있다. 그 사이 성착취 등 부작용은 늘고 있는데 정작 이를 예방할 수 있는 법적 장치 마련에는 정치권이 소홀한 모습이다. 대선·지선주자들, 너도나도 활용가상인물·공간… 이색유세 펼쳐 메타버스가 가장 주목받은 시기는 올해 가장 큰 정치이벤트였던 '20대 대통령선거'와 '8회 전국동시지방선거' 때다. 대선에 앞서 정치권에서는 지난해 8월부터 당내 경선이 순차적으로 시작됐고 이 과정에서 정당들은 메타버스를 활용해 유권자와 실시간 정책 소통, 공약 홍보, 선거운동 등을 했다. 메타버스를.. 김동연의 100일공직사회 잘 알기에… 관성 깨는 도정철학 공공의료 공백 인천의료원, 7개 과목 '휴진'… 시민 헛걸음, 전국서 버금간다 국회 국감 화두 경기도내 RPC, 전국 최악 적자… 국감선 '지역농협 지원' 목소리 공정위 표준약관 구멍 허술한 공정거래위원회 '셀프빨래방 표준약관' 두 번 우는 점주들 오늘의 사건사고 부부 싸움하다 불 지르려 휘발유 뿌린 남성 붙잡혀… 경찰 구속영장 신청 배재흥 기자 부천서 80대 아버지 흉기로 찌른 아들 붙잡혀… '가정불화 추정' 이상훈 기자 부천 호프집서도 '먹튀'에 직원 성희롱까지… 주민들 공분 이상훈 기자 경인 WIDE 구단 매각 언급에 축구팬 반발 돈줄 막힐땐 걷어차고, 비리 엮일땐 팽개치고… 시민축구단 현실 K4리그에서 활약하던 인천남동구민축구단은 올해 갑작스럽게 해체 결정을 내렸다. 해체 이유는 재정적인 어려움이었다. 2020년 K4리그 출범 때부터 리그에 참가했던 인천남동구민축구단은 남동구청의 보조금을 토대로 인천 지역 유일의 K4리그 팀으로 활약해 왔지만, 올해 남동구의 지원이 끊기자 선수들과 직원들의 임금을 주지 못하는 사태에까지 이르렀다.인천남동구민축구단 지원 조례의 유효기간을 연장하는 내용이 담긴 조례안이 상정됐지만, 네 번이나 부결되면서 남동구의회를 통과하지 못했다. 재정난 닥친 인천남동구민축구단선수 급여 지급 어렵.. 정책따라 흔들리는 지역화폐 지역화폐 동력 '인센티브'… 예산 쥔 정부만 바라본다 정부가 내년도 지역화폐 관련 예산을 전액 삭감하면서 경기지역화폐가 또 한 번 위기를 맞았다. 골목상권 보호 등을 통한 지역경제 활성화라는 공공성을 가졌지만, 예산 등 정책이 바뀔 때마다 지역화폐가 화두에 오르는 일이 반복되는 것이다.특히 국비 지원 중단은 인센티브(캐시백·할인율 등) 지급 등 지역화폐 경쟁력을 흔드는데, 지역화폐 시행 3년이 지나도록 이 같은 악순환이 계속되고 있다. 이 때문에 지역화폐의 지속가능성, 안정성을 확보하기 위한 대책 마련이 필요하다는 목소리가 나온다. 용인시민 A(33)씨는 지역화폐 '와이페이'.. 지역 시민단체 위기 각자도생의 시대, 휘청이는 시민사회 시민단체의 사회적 영향력·신뢰도는 예전 같지 않다. 특히 지역시민단체는 중앙보다 재정력이 약해 활동이 위축되고 시민들은 가입하지 않는 '악순환'이 반복된다.그럼에도 전문가와 시민단체 관계자들은 여전히 시민단체가 존재해야 한다고 말한다. 소외될 수 있는 지역주민의 목소리를 대변하고 권한이 강해진 지자체를 견제하기 위해 지역시민단체가 필요하다는 것이다.수원이주민센터, 회원 75% 줄어무관심 → 재정악화 → 활동위축이주민 인권증진·지원활동을 해온 시민단체 '수원이주민센터'의 회원은 4년 사이 400명에서 100명으로 줄었다. 회비,.. 신문사소개| 윤리강령| 고충처리| 기사제보| 구독신청| 개인정보 처리방침| 청소년 보호정책| 디지털뉴스 이용 규칙| 그룹웨어| 사이트맵 본사 :&amp;nbsp(16488) 경기도 수원시 팔달구 효원로 299 경인일보사빌딩  |  TEL :  031-231-5114   |   FAX : 031-232-1231/0339  |  구독신청 1588-3001 인천본사 :  (21556) 인천광역시 남동구 남동대로 773 3층   |   TEL : 032-861-3200   |   FAX : 032-861-3206/3209 인터넷신문등록번호 : 경기 아51587   |   등록일자 : 2017.07.17   |   ISSN 2635-9596   | 발행인/편집인 : 배상록 경인일보의 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. Copyright (c) by 경인일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 9월 한 달간 관광 할인경품 이벤트 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 제주도 9월 한 달간 관광 할인경품 이벤트 ‘황금빛 제주’ 9월 한 달간 제주관광 할인·경품 행사1260개 숙박업 기념품 음식점 참가 최대 70% 할인 이진규 기자 ocean@kookje.co.kr |   입력 : 2018-08-17 15:58:02 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 황금빛 가을제주 행사 포스터. 제주도관광협회 제공 제주특별자치도와 관광협회는 가을 관광철을 맞아 9월 한 달간 제주 관광 붐업을 위한 관광객 대상 빅이벤트를 마련한다고 17일 밝혔다.이번 행사 기간 제주도 전역 1260개 업체가 쇼핑 할인과 관광객 대상 경품 제공, 할인업체 이용 관광객 대상 기념품 제공 등에 참여한다. 쇼핑 할인은 숙박업, 기념품, 음식점 등 제주도 내 관광사업체에서 최저 4%에서 최대 70%까지 할인하며 일부 렌터카는 90%까지 할인다.9월 한 달 동안 제주를 방문하는 관광객에게 제주의 공항, 항만 및 가을 축제 현장에서 제공하는 경품권 추첨을 통해 500명에게 최저 10만 원에서 최고 100만 원권 관광 상품권을 제공한다. 또 쇼핑 할인 업체를 3회 이상 방문한 관광객에게는 1만5000원 상당의 제주 관광이용권을 모바일 인증을 통해 제공한다.9월에는 제주해녀축제, 용연선상음악회 등 제주의 문화의 특성을 살린 축제들이 다양하게 열린다. 축제에 참여한 관광객들은 제주의 가을 축제를 즐기면서 경품권도 받을 수 있다.이번 행사를 위해 제주관광협회는 인터넷 홈페이지(www.tamnao.com)에 행사 전용 웹페이지를 개설해 행사를 안내한다. 이진규 기자 ocean@kookje.co.kr ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] 관련기사 까까뉴스 [영상] ‘이제 눈썰매도 즐기자’ 팔방미인 김해롯데워터파크 눈길 [영상] 부산 앞바다도 얼었다...부산 영하7.1도, 올 겨울 최저 [영상] 부산 시사회를 뜨겁게 달군 하정우X이선균 ‘입담’(PMC:더 벙커) [영상] “롯데 자이언츠가 우승했다” 빵 터지는 수상소감(feat.팬 미팅) 고정관념에 맞선 미셸 오바마 삶의 여정 [영상] “미스터리 풀렸다” 2019 부산 수능 시험장에 울려퍼진 응원 구호는? “트렌디한 타이틀곡…그 속에 사람을 담았죠” 오바마·힐러리·CNN에 동시다발 폭탄물 소포 배달 1조8000억 ‘잭팟’ 미국 사우스캐롤라이나서 터졌다 성폭행 논란 호날두 “나는 모범적인 사람” ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [기획] 맛 대 맛 부산서 해외미식기행 &lt;3&gt; 금정구 ‘오키나와키친’ 캐비어 품고, 솜사탕 얹고…망고빙수 럭셔리한 진화 부산서 해외미식기행 &lt;2&gt; 전포동 ‘바오하우스’ 부산서 해외미식기행 &lt;1&gt; ‘도라보울’ 수프카레 ‘어디GO’ 이용자 추천 배달 맛집 톱3는? 제철 맞아 쫀득한 민어회, 장인 손 거치니 味친 한상 찌개부터 젓갈·무침까지…명태의 무한 변신 식감 있는 시금장, 냄새 없는 청국장…건강한 발효 밥상 [핫이슈] 추천 여행지 경남 협동조합이 뭉쳤다, 최고의 1박2일을 위해 먹방로드는 대구로 통한다 천연 수영장, 둘레길 ASMR…장유서 2박3일 소확행 통도사 명품 소나무길 ‘눈호강’ 청정 배내골서 더위 싹 얼음골서 삼복더위 날리고, 케이블카 타고 신선놀음 고래떼 찾는 생태관광…모노레일로 포경 역사여행 대왕암공원 해송숲 거닐고, 심장쫄깃 출렁다리 건너봐 8500여 그루 편백 호위하는 ‘언택트’ 천마산 산림욕장 반려동물…또 하나의 가족 동물 에티켓도 공부가 필요 박귀엽 시민기자의 요즘 육아 함께하는 육아·정책 기획시리즈 강준수 시민기자의100세 시대 건강과 식생활 김태영 시민기자의 뷰티플 라이프 박귀엽 시민기자의 요즘 육아 반려동물…또 하나의 가족 외국인 시민기자의 한국 사랑 강병령의 한방 이야기 [전체보기] ‘명절 통증’ 지속땐 침·뜸으로 조기치료 퇴행성 관절염, 오적산 등의 약제 효능 김경민의 한방 이야기 [전체보기] 노인성 질환 줄이려면 꼭 ‘변비 관리’ 김형철의 한방 이야기 [전체보기] 수험생 집중력 저하에 총명탕 도움 허리 통증 있다면 허혈 풀어줘야 박상은의 한방 이야기 [전체보기] 기능성 소화불량엔 침 치료 효과 손명균의 한방 이야기 [전체보기] 골다공증 한약·침으로 호전 가능 심재원의 한방 이야기 [전체보기] 냉방병엔 갈근탕·향소산 등 효과 아이 키 성장 위한 영양관리 유선애의 한방 이야기 [전체보기] 성장호르몬 맞춤처방 키 크는데 중요 윤경석의 한방 이야기 [전체보기] 잦은 불안증엔 탕약·침 처방 효과 코로나 후유증에는 ‘면역 보양식’ 이수칠의 한방 이야기 [전체보기] 아이들 성장에 좋은 맞춤한약 치료 천식 원인 감별…자생력 키워 치료 진료실에서 [전체보기] 아토피 잇따른 신약…유발 요인 등 찾아 적극 치료해야 완치 통풍·신장병 예방하려면 내장류·맥주 등 섭취 줄여야 하한출의 한방 이야기 [전체보기] 모세혈관 노화 젊은층도 관리해야 손·발 함께 떨릴 땐 파킨스병 의심을 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈·오름 생태관광 프로그램 참여자 모집(9월~11월 3차례) - 백세시대 × 전체기사 시니어 전체 대한노인회 우리 지회 자랑 일과봉사 노인단체 건강·생활 전체 건강의학 생활 요리 복지 경제 전체 금융 일반경제 재계이슈 인물 전체 인물포커스 피플 문화 전체 문화초점 문화행사 오피니언 로컬뉴스 전체 서울 부산 대구 인천 광주 대전 울산 세종 경기 강원 충북 충남 전북 전남 경북 경남 제주 해외 포토뉴스 종합 보류 전체 종합-고령친화산업 기획 기획-문화 기획-사회일반 연재종료 독자와 함께 UPDATED. 2022-10-11 11:30 (화) 로그인 회원가입 모바일웹 기사검색 검색 전체보기 시니어 건강·생활 경제 복지 인물 문화 오피니언 로컬뉴스 전체메뉴 전체기사 대한노인회 우리 지회 자랑 노인단체 일과봉사 건강의학 생활 금융 일반경제 재계이슈 인물포커스 피플 문화초점 문화행사 서울 부산 대구 인천 광주 대전 울산 세종 경기 강원 충북 충남 전북 전남 경북 경남 제주 해외 이전 다음 제주도, 곶자왈·오름 생태관광 프로그램 참여자 모집(9월~11월 3차례) 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 제주도, 곶자왈·오름 생태관광 프로그램 참여자 모집(9월~11월 3차례) 배성호 기자 승인 2018.08.24 14:09 호수 634 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 생태전문가와 함께 각 오름의 생태관광, 지역민의 삶 체험 ‘제주의 허파’ 곶자왈과 오름의 생태를 돌아보는 관광 프로그램이 진행된다. 제주도는 곶자왈 연계 오름 생태관광 프로그램을 오는 9월 12~13일과 20~21일, 11월 8~9일 등 3차례에 걸쳐 진행한다고 8월 21일 밝혔다. 이 프로그램은 지역 주민이나 생태전문가와 함께 저지오름, 새별오름, 솔오름, 물영아리오름과 주변 곶자왈을 찾아 각 지역의 독특한 생태를 살펴보는 일정으로 짜였다. 각 오름의 깃대종(특정지역의 대표 동․식물)을 중심으로 식물 찾기 애플리케이션을 활용한 미션을 수행하고, 자연놀이를 통해 참가자가 직접 곶자왈과 오름의 가치를 찾아가게 한다. 곶자왈은 화산활동 중 분출한 용암류가 만들어낸 불규칙한 암괴지대로 숲과 덤불 등 다양한 식생을 이루는 곳을 말한다. 숲을 뜻하는 ‘곶’과 돌을 뜻하는 ‘자왈’의 합성어로 제주어이다. 이번 프로그램 참여자들은 지역 주민이나 전문가의 해설, 지역 특선 음식 체험 등을 통해 오름과 함께 살아가는 지역민의 삶도 체험한다. 모집 인원은 1회 20명, 2회와 3회는 각 30명이다. 제주도민은 참가 대상이 아니다. 참가자는 제주생태관광협회 홈페이지(www.jejucotour.com)에서 선착순으로 접수한다. 자세한 내용은 제주생태관광지원센터 사무국(☎ 064-712-3232)로 문의하면 된다. 저작권자 © 백세시대 무단전재 및 재배포 금지 배성호 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1대한노인회‧복지부, 제26회 노인의날 기념식… 133명에 훈‧포장, 표창 2대한노인회 제12대 경기 오산시지회장에 신건호 전 사무국장 당선 3제9회 전국노인건강대축제…충남연합회, 그라운드골프 종합우승 ‘굿샷’ 4대한노인회 경북연합회, 제26회 경북 노인의날 기념식 성료 5대한노인회 제9회 전국노인건강대축제 광주광역시서 화려한 개막 6대한노인회 서울 중랑구지회 제12대 이지연 지회장 취임식 7대한노인회 전북연합회, 제26회 전북도 노인의날 기념식 성료 8대한노인회 전북 군산시지회, 제26회 노인의 날 기념식 개최 9대한노인회 제6대 경기 수원 영통구지회장에 현 김열경 회장 재선 10대한노인회 경기 화성시지회, 제26회 화성노인큰잔치 성황리에 개최 최신기사 [백세시대 금요칼럼] 너도 가면 이 마음 어이해 / 엄을순 [배상섭의 스케치 파노라마] 하나개에서 [시] 용문사 은행나무 [백세시대 / 세상읽기] “어느 소년병의 6·25 참전일기” [정리하면 행복해져요 15] 물건에 따라 버리는 방법을 다르게 해요 [백세시대 건강요리] 몸이 원하는 삼삼한 밥상 (8) 알록달록 연근튀김 [볼만한 책] 치매의 거의 모든 기록 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 강서구 강서로 466 (우리벤처타운) 6층 대표전화 : 02-2664-7311 팩스 : 02-2664-9011 명칭 : (주)노년시대사 제호 : 백세시대 등록번호 : 서울 아 01416 등록일 : 2010-11-17 발행일 : 2006-01-05 발행·편집인 : 이현숙 청소년보호책임자 : 조종도 백세시대 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 백세시대. All rights reserved. mail to efg@100ssd.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 9월 1260개 업체와 가을 행사 '빅이벤트' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도-관광협회, 9월 1260개 업체와 가을 행사 '빅이벤트' 등록 2018.08.06 10:16:00 작게 크게 제주 가을축제 이벤트 포스터. 【제주=뉴시스】강정만 기자 = 제주특별자치도는 오는 9월 가을 관광철을 맞아 제주도관광협회와 함께 관광객 대상 빅이벤트를 추진한다고 6일 밝혔다 이 이벤트는 도내 관광업체 1260곳이 참여하는 쇼핑 할인과 행사기간 중 제주를 찾는 관광객과 할인업체를 이용하는 관광객에 기념품을 제공하는 행사로 진행된다. 공항과 항만등 가을축제 현장에서 제공될 경품권은 추첨을 통해 500명에게 최저 10만원에서 최고 100만원 상당의 상품권으로 구성됐다. 쇼핑할인 업체를 3회 이상 방문한 관광객에게는 1만5000원 상당의 제주관광이용권을 모바일 인증을 통해 제공한다. 도 관광협회는 이 행사를 위해 인터넷(탐나오)에 행사전용 웹페이지를 개설해 행사를 안내하고, 참여업체 리스트와 업체별 구매처를 연계해 제주관광상품 예약과 결제가 가능하도록 할 계획이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 실물경제...건설업 '부진', 관광업 폭염영향 '위축' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 실물경제...건설업 '부진', 관광업 폭염영향 '위축' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 실물경제...건설업 '부진', 관광업 폭염영향 '위축' 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.08.22 15:41 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 최근 제주경제가 건설 부진이 지속되는 가운데 관광 부문도 올 여름 폭염 영향으로 위축되는 양상을 보이는 것으로 나타났다.한국은행 제주본부가 제주도 실물경제 동향을 파악한 결과, 6월 중 건설수주액이 감소세를 지속하는 가운데 건축허가면적도 감소폭이 크게 확대된 것으로 나타났다.건축 착공면적은 주거용, 비주거용 모두 큰 폭으로 감소했다.관광업은 여름관광시즌을 맞았음에도 7월 중 관광객수는 폭염에 따른 근거리 휴가 선호 등 내국인 관광객이 감소세가 뚜렷하면서 전체적으로 2.7% 감소한 것으로 나타났다.6월 중 대형소매점 판매액지수 하락세가 둔화된 것으로 나타났다. 반면 농수산물 출하실적 및 제조업, 수출입 등은 확대된 것으로 조사됐다.부동산 시장에 있어 7월 중 주택매매가격은 전월대비 보합세를 보였으나 아파트매매 가격은 0.1% 하락한 것으로 나타났다. 반면 6월 중 토지가격은 0.3% 상승했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 무슬림 관광객 적극 유치… 도민 정서는? 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 12.3℃ 구름많음제주 18.0℃ 흐림고산 16.0℃ 구름많음성산 16.9℃ 구름많음서귀포 18.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 무슬림 관광객 적극 유치… 도민 정서는? 이영섭 gian55@naver.com 등록 2018.08.16 10:48:00 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 예멘 난민 사태로 무슬림 문화에 대한 도민 사회의 우려가 계속되고 있는 가운데 제주관광공사가 무슬림 외국인 관광객 유치에 적극 나서고 있어 귀추가 주목된다. 제주관광공사와 제주도관광협회는 16일부터 오는 18일까지 서울 코엑스에서 개최되는 할랄푸드페스티벌에 참가하여 국내외 무슬림 및 외국인 관광객, 일반소비자를 대상으로 제주관광 및 도내 무슬림 친화시설을 홍보하고 있다고 밝혔다. 이번 행사는 ‘할랄산업엑스포코리아 2018’과 연계한 소비자 이벤트 행사로 한국관광공사 주관으로 개최되고 있다. 행사 기간 제주관광공사는 도내 무슬림 친화 레스토랑과 기도실 등 무슬림을 위한 인프라를 소개하고, 케이푸드(K-Food), 케이컬처(K-Culture) 중심지로써 제주관광을 인식시킬 예정이다. 또한 무슬림을 위한 웰니스, 레저, 가족여행 등 고품격 콘텐츠를 소개할 계획이다. 제주관광공사는 시장다변화의 핵심시장 중 하나로 무슬림시장을 선정하고, 아시아 및 중동지역 무슬림 관광객 유치를 위한 마케팅을 추진하고 있다. 이에 대해 제주관광공사 관계자는 “제주도내에는 14곳의 무슬림 친화 레스토랑이 지정돼 있고, 상설기도실도 9곳이 마련돼 있는 등 점차 인프라를 구축해 가고 있다. 이에, 업계와의 공동 마케팅을 통해 무슬림이 편안하게 여행할 수 있는 관광지임을 홍보하고 고부가가치 상품을 활성화할 것”이라며 “도내 무슬림에 대한 인식 개선에도 힘쓸 것”이라고 강조했다. 이런 제주관광공사의 움직임에 대해 도민과 관광객들의 시선은 여전히 싸늘하다.제주시에서 자영업을 운영하는 한 도민은 "음식점에 이슬람 관광객이 들어오면 국내 관광객들의 표정이 변하는 등 부정적인 반응이 많은 게 사실"이라며, "이슬람 관광객이 증가하면 제주에 대한 인식이 오히려 안 좋아질 것"이라고 우려를 나타냈다.제주여행 관련 인터넷 커뮤니티 등의 반응도 마찬가지다.특히 어린 아이들과 함께 제주여행을 계획하는 관광객들은 중국인과 무슬림이 많은 제주도는 이제 위험하다는 극단적인 반응까지 보이고 있는 상황이다.이에 무슬림 관광객 유치가 전체 제주관광시장에 어떤 영향을 미칠 지 다시 한 번 고민이 필요할 것으로 보인다. 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 난민 신청 예멘인 2명 인정, 박해가능성 높아 2018-12-14 제주 해수욕장 이용객 2년 연속 감소 2018-09-03 장전리 펜션임대해 난민캠프 설치, 학부모들 등교거부 움직임 2018-08-22 제4차 난민반대 전국집회, 제주와 서울 등에서 11일 개최 2018-08-09 예맨 난민, 녹지국제병원 등 긴급현안에 대한 협력회의 열려 2018-07-20 상반기 외국인 범죄, 중국인 비율이 압도적 2018-07-17 제주난민대책도민연대, 14일 난민법개정과 무비자폐지 집회 예고 2018-07-13 제주 지역 예멘난민 신청자 간 흉기다툼, 도민불안 증폭 2018-07-02 대문도 없이 사는데 난민이 웬말, 도민연대 도청방문 2018-06-29 제주도, 예멘 난민 대책회의 개최…지원과 관리 병행 2018-06-28 3건의 관련기사 더보기 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 서귀포시, 허위 과다입원환자 근절 부당한 보험료 인상 피해 줄이기에 나서 11:22 서귀포시, 2022년 교통유발부담금 21억 원 부과 11:21 제주시, 읍면지선에 친환경 소형전기버스 2대 도입 11:18 제주시, 겨울철 자연재난(대설․한파) 대비 사전점검 11:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 12시 30분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도 함덕 맛집, ‘그때그집함덕점’ 세화 근처 관광객들도 찾아가 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 함덕 맛집, ‘그때그집함덕점’ 세화 근처 관광객들도 찾아가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 함덕 맛집, ‘그때그집함덕점’ 세화 근처 관광객들도 찾아가 기자명 이수호 기자 승인 2018.08.17 17:46 댓글 0 조회수 : 15098 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 내국인을 비롯하여 이웃나라 일본이나 중국 등 해외 관광객이 방문하는 세계적인 관광휴양지이다. 한반도 아래에 위치하여 열대의 온난한 기후가 지속되는 것이 특징이기 때문에 사계절내내 제주도 관광을 즐기기에 적합하다. 다양한 테마의 제주도여행이 가능한데 그 중 젊은층에게 인기있는 테마여행은 제주도카페투어이다. 구좌읍 월정리 인근에는 제주도 해변 카페와 레스토랑, 게스트하우스가 해안선을 따라 집중돼있다. 남녀노소 즐기기 좋은 제주도여행추천지 중 가장 대표적인것은 한라산 백록담, 성산일출봉 등이 있다. 때문에 성산일출봉 펜션 , 호텔 등이 잘 조성되어 있다. 제주도가볼만한곳으로 인기많은 델문도카페, 서우봉둘레길, 제주동물원, 제주에코랜드 등이 있다. 가족여행, 커플여행지로 인기많은 제주 함덕해수욕장 인근에는 제주도 함덕 숙소, 제주도 함덕 호텔,제주 함덕 카페, 제주 함덕 맛집 등 제주 함덕 가볼만한곳이 밀집되어있다. 또 , 세화해변과 가까워 제주 세화해변 카페 ,새도래지, 용눈이오름 , 만장굴 ,비자림 등 방문하기 좋고, 제주 세화 맛집, 세화오일장 맛집도 찾아가기 좋다. 그 중 줄서서 먹는 인기 함덕해수욕장 맛집은 흑돼지전문점 '그때그집 함덕점'으로 제주도 맛집 베스트 10이다. 제주 특산물인 제주흑돼지구이와 흑돼지김치찌개전골을 정통으로 맛볼 수 있는 곳으로 최근 제주 월정리해수욕장 맛집으로 주목받고 있다. 현지인들이 가장 많이 추천하는 제주 흑돼지 맛집으로 '그때그집 함덕점'은 흑돼지를 두툼하게 잘라 초벌구이를 한 뒤 테이블에서 직접 구워 제공하고 있다. 이렇게 구운 흑돼지는 간단하게 소금간만 하여 먹어도 쫄깃한 육질과 고소한 맛을 충분히 만끽할 수 있다. 대표고기메뉴는 흑돼지 오겹살, 목살, 백목살로 한 근 또는 200g으로 즐길 수 있도록 준비돼 있는데 한 근 주문시 새우, 소시지,김치찌개뚝배기,계란찜이 서비스로 나와 꼭 가봐야할 제주여행필수코스로 더욱 각광받고 있다. 이 곳은 각기 다른 입맛에 따라 고기를 먹을 수 있도록 멜젓 외에도 카레가루와 콩가로를 함께 제공하고 있다. 특히 점심메뉴인 흑돼지김치찌개쌈은 줄서서 먹을 정도로 인기인데 1인8천원에 흑돼지고기가 넉넉하게 들어간 김치찌개전골과 더불어 라면사리, 공기밥, 계란후라이를 무한리필로 먹을 수 있어 가성비 좋은 곳으로 유명하다. '함덕그때그집'은 월정리해수욕장과 함덕해수욕장,김녕해수욕장, 제주도 세화해수욕장 등 인근에 위치해 있어 바로 찾아갈 수 있는 제주도 월정리 맛집, 제주도 에코랜드 맛집이다. 한편, '그때그집' 함덕점은 오전10시부터 오후11시까지 영업하며 첫째,셋째 수요일 휴무일이다. 단체예약 및 문의는 대표번호를 통해 문의할 수 있다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"도로 넓히려 관광명소 ‘비자림숲’ 파괴하는 제주도…환경훼손 논란"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 도로 넓히려 관광명소 ‘비자림숲’ 파괴하는 제주도…환경훼손 논란 2018.08.09 15:31 제주시 비자림로 삼나무숲 가로수 나무들이 도로 확장·포장 공사로 잘려져 있다. 제주환경운동연합은 삼나무숲 가로숫길이 무참히 훼손되고 있다고 8일 주장했다. [사진=경운동연합/연합뉴스][헤럴드경제=이슈섹션] 우리나라에서 가장 아름다운 도로로 선정된 제주 삼나무숲길 일명 ‘비자림로’가 도로확장 공사로 훼손되면서 환경파괴 논란이 일어 공사가 잠시 중단됐다.제주도는 도로 확장의 필요성과 주변 삼나무숲 군락에 미치는 환경 영향을 재검토하고 여러 가지 대안을 마련, 최종적인 입장을 조만간 발표하겠다고 9일 밝혔다.그러나 도로 확장·포장 사업이 구좌·성산읍 지역 주민의 오랜 숙원사업이고 토지 보상이 75％가량 진행된 만큼 사업 백지화는 어려운 상황이라고 설명했다. 제주는 이곳 3㎞구간을 현행 2차로에서 4차로로 도로를 넓혀 교통 혼잡을 해소해나가겠다는 계획이다.총 2100여 그룹의 삼나무가 잘려나가는 것에 대해 제주도 측은 인공으로 조성된 숲으로 베어내도 별 문제가 없다라는 입장이다.그러나 환경단체들의 주장은 다르다. 공사구간과 맞닿아 있는 도로가 2차로로 남아 있어 이 도로를 확장해도 병목현상은 그대로 남게 되며 되레 주변 환경과 경관 훼손 등의 문제를 제기했다.청와대 국민청원 게시판에도 비자림로의 도로확장 공사를 중단해 달라는 청원이 잇따라 올라오고 있다.2022년 공사가 완료되면 현재 2차선인 이 구간이 4차선(폭 21ｍ) 도로로 확장된다. 사업비는 총 207억 원이다.제주환경운동연합은 7일 “비자림로 확장·포장 공사로 아름답기로 소문난 삼나무숲 가로수길이 무차별 훼손되고 있다”며 공사 중단을 촉구했다.이에 대해 도는 해당 공사는 환경영향평가법에 따라 2015년 5월 영산강유역환경청과 소규모 환경영향평가 협의를 완료한 사업이라고 밝혔다. 그러자 제주환경운동연합은 소규모 환경영향평가 협의 내용을 들어 재반박했다.시민단체는 “영산강유역환경청이 밝힌 ‘본 계획이 경관보전지구 1등급 지역인 속칭 선족이오름을 통과함에 따라 오름의 훼손이 발생하고, 계획노선의 대부분 구간이 경관보전지구 2등급 지역을 통과하고 있어 도로노선 확장 필요성에 대한 재검토가 필요하다’고 했다”며 “오름 파괴와 경관 훼손이 불가피하므로 사업의 필요성을 재검토하라는 주문이다”라고 밝혔다.박순흡 도 도시건설과 도로계획담당은 “삼나무 훼손이 불가피한 부분이 있지만, 군락지 전체가 사라지는 것이 아니다”며 “10년간 이어진 지역 주민의 숙원사업인 만큼 사업의 진행과 최선의 대안 등에 대해 다각도로 신중히 검토하겠다”고 말했다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 식도락 여행, 흑돼지 연탄구이 맛집 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 제주도 중문관광단지 식도락 여행, 흑돼지 연탄구이 맛집 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 제주도 중문관광단지 식도락 여행, 흑돼지 연탄구이 맛집 유지형 승인 2018.08.20 10:14 수정 2018.08.20 10:14 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 사진 제공 : 돈이랑 찜통더위가 식을 줄 모르는 가운데 이젠 밤에는 제법 선선한 바람이 불기 시작 했다. 여름의 끝자락이라고 느껴지고 있는 가운데 제주도 중문관광단지는 식도락 여행지로 관심을 받고 있다. 최근 제주도 여행 트랜드는 관광명소는 기본, 맛집을 곁들인 식도락 여행이 늘어나면서, 제주도 에서만 본연의 맛을 느낄 수 있는 흑돼지 맛집이 문전성시다. 특히 제주도 중문관광단지 대포항의 주상절리대는 웅장한 해안 절벽과 함께 바다가 조화롭게 어울려져 있으며 저녁과 밤으로 이어지는 바다바람의 시원함 속에서 흑돼지 연탄구이를 찾는 이들이 늘어 나고 있다. 중문관광단지 입구에 위치한 흑돼지 전문 ‘돈이랑’ 관계자는 “남녀노소 나이를 불문하고 이삼오오 짝을 이루거나 나홀로 여행속에 맛집 탐방을 즐기는 사람들이 즐겨 찾고 있다.”며 “대포항의 주상절리대의 웅장한 해안절벽도 감상하고 저녁이면 나름 선선한 바닷 바람과 야경속에서 제주도에서만 맛볼 수 있는 흑돼지 연탄구이 요리를 맛보는 것도 삶의 또다른 힐링 포인트가 되고 있다”고 전했다. 현재 돈이랑은 국내에서는 처음으로 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항생제 명품 흑돼지로 국내 유명백화점에 납품을 진행하고 있으며, 지하 180미터에서 퍼올린 미네랄의 보고 화산암반수로 사육해, 위생적이고 미네랄이 풍부한 제주흑돼지를 두툼한 두께로 제공해 눈길을 끌고 있다. 또한 두툼한 두께로 제공하는 흑돼지 연탄불 구이는 겉은 바삭하고 속은 부드러운 특유의 맛이 특징으로 알려졌으며, 관광객들을 위해 밤12시까지 영업과 함께 무료픽업 서비스를 진행하고 있다. 한편 돈이랑은 제주도 내에서도 제주신라호텔, 제주롯데호텔, 제주하얏트호텔, 제주켄싱턴호텔 직원들과 주변 제주 골프장을 찾는 관광객들 역시 즐겨 찾는 맛집으로 입소문을 타고 있다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 coffee17g@incheonilbo.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>청정 제주도 서귀포 전복과 통문어를 함께 즐기는 갈치조림. 중문관광단지 맛집 색달식당 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.24 (일) 구름많음동두천 26.3℃ 구름많음강릉 30.6℃ 비서울 27.3℃ 흐림대전 26.1℃ 흐림대구 31.0℃ 구름많음울산 31.0℃ 흐림광주 24.3℃ 구름조금부산 25.7℃ 흐림고창 24.2℃ 흐림제주 28.5℃ 흐림강화 24.9℃ 맑음보은 24.6℃ 흐림금산 26.3℃ 흐림강진군 26.4℃ 흐림경주시 31.9℃ 구름많음거제 27.2℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 청정 제주도 서귀포 전복과 통문어를 함께 즐기는 갈치조림. 중문관광단지 맛집 색달식당 강유라 기자 news@pcss.co.kr 등록 2018.08.16 13:25:58 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 자연상태가 잘 보존된 제주도는 화산섬 특유의 다양한 지형이 있고 용암동굴을 방문할 수 있다. 제주 남쪽 해안을 따라 방문할 수 있는 중문관광단지는 천제연폭포를 비롯해 여미지식물원 등 다양한 볼거리와 함께 중문색달 해수욕장 등이 유명하다. 또한 중문관광단지는 제주 유명 숙박시설이 밀집해 있고 매달 5일 간격으로 돌아오는 3일, 8일에 중문향토오일시장이 열려 많은 방문객들이 찾는다. 방문객이 많은 만큼 중문관광단지 주변으로 중문맛집으로 알려진 유명음식점이 많은데, 이 중에는 TV맛집기행 방송프로그램에 소개되거나 생생정보통 등 맛집소개를 통해 알려진 음식점을 쉽게 방문할 수 있다. 현지 특산물을 활용한 해산물 요리가 발달한 제주도는 길거리에서 쉽게 구매하여 먹을 수 있는 간편한 음식과 함께 문어, 전복, 갈치 등 고급 식재료를 사용한 제주한정식도 있다. 그 중 제주한정식을 전문으로 하는 서귀포맛집 색달식당은 제주특산물 은갈치를 사용한 갈치조림과 갈치구이가 있으며, 제주 인근해역에서 잡아 올린 통문어와 활전복 등의 식재료도 함께 넣어 제주도에서는 식욕을 올려주는 보양식으로 대접받는다. 중문관광단지맛집 색달식당의 활전복 통문어 갈치조림은 통문어와 통갈치, 딱새우, 활전복, 제주도산 돌문어 등을 갈치와 함께 넣고 끓인 요리를 메인으로 문어가 통으로 들어가 바다 내음을 물씬 느낄 수 있을뿐더러 특수 제작한 냄비에 담겨있어 싱그러운 바다 느낌을 입 속에서 느낄 수 있다. 갈치조림의 경우 칼칼한 고추장 양념이 오랜 시간 졸여 갈치에 잘 배어 나오도록 만든다. 제법 칼칼한 느낌의 양념을 경험할 수 있으며 요리로써 식욕을 당겨주지만 밥반찬으로도 어울린다. 또한 제주도맛집 색달식당의 전복뚝배기는 생전복을 활용하여 부드러운 식감을 느낄 수 있다. 해물뚝배기 또한 싱싱한 해물과 시원한 육수를 푹 우려내 깊은 맛을 느낄 수 있다. 성게미역국은 기본에 충실한 맛으로, 향긋한 바다 내음을 입안에서 느낄 수 있다. 색달식당 관계자는 "매일 갓 생산된 싱싱한 해산물만을 엄선해 음식을 만들고 있으며 반찬에 조미료를 전혀 넣지 않은 건강식을 제공하고 있다"라며 "중문관광단지 내 픽업 서비스가 가능하니 오셔서 맛있는 갈치조림 한 상 드시고 가시길 추천 드린다"고 전했다. 중문단지 초입에 위치한 색달식당은 사전 예약을 통해 단체손님 방문이 가능하다. 강유라 기자 의 전체기사 보기 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 좌담회 [폴리 7월 좌담회 전문③] “동반 하락하는 여당 지지율, 또 다시 이준석이 구원투수?” 지난 3년 간 아파트 거래 10채 중 3채는 '2030세대' [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 파업 51일째, 대우조선 하청노·사 협상 극적 타결 산은 "대우조선 하청노조파업 장기화로 자금난땐 추가지원 불가"…채권단 지원거부시 회생절차 신청 불가피 많이 본 기사 1[폴리TV][김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” 2예천군, 제19회 경상북도지사기 전국 남‧여 초중학교 양궁대회 개최 325일부터 새 정부 첫 국회 대정부질문…인사·탈북어민북송 논란 정면충돌 4소득세 개편에 최고 수혜는? 연봉 1억 안팎 소득층 5[노동일의 법과시대정신] 수사 자제를 국정 협조의 조건으로 내세운 민주당의 ‘수사 거래’ 이슈 더보기 [폴리 7월 좌담회 전문③] “동반 하락하는 여당 지지율, 또 다시 이준석이 구원투수?” [폴리뉴스 한유성 기자] &lt;폴리뉴스&gt;와 월간 &lt;폴리피플&gt;은 7월 19일 “윤석열 정부 첫 해, 경제 위기 속에 총체적 난국이 우려된다”는 주제로 정국좌담회를 가졌다. 이날 좌담회에는 홍형식 한길리서치 소장, 차재원 부산 가톨릭대학교 특임교수, 황장수 미래경영연구소장, 그리고 본지 김능구 폴리뉴스 대표가 참석했다. 좌담회 세 번 째 주제는 이준석 당 대표의 징계 이후 국민의힘의 상황과 현 직무대행 체제의 전망을 짚어봤다. 김능구 : 국민의힘 이야기를 해보자. 이준석은 현재 직무정지만 돼 있으니까 아직 당 대표다. 징계 후 10일이 지났기 때문에 재심이나 가처분은 하지 않는 걸로 보여지는데, 처음 이야기하고는 조금 다른 스탠스를 취하고 있다. 차재원 : 좋은 의미든 나쁜 의미든 사람들이 예측하는 것 하고는 달리 행동한다. 이준석 답다는 생각이 드는데, 알다시피 본인도 재심하고 가처분 신청을 할 것처럼 했지만 그것을 한다고 해도 본인에게 유리한 결과가 나오지 않는다는 냉철한 판단을 한거다. 어차피 윤리위에서 재심을 받아주지 않을 거고, 가처분 신청도 법원에서 정당의 영역까지 감 놔라 배 놔라 하지 않을 가능성이 높기 때문에, 가처분 신청이 안 [이슈] 사상 첫 총경 회의에 정치권도 술렁…與 "집단행동" vs 野 "정당행위" [노동일의 법과시대정신] 수사 자제를 국정 협조의 조건으로 내세운 민주당의 ‘수사 거래’ [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리 7월 좌담회 전문②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” 인터뷰 더보기 [폴리TV][김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” [폴리뉴스 강경우 PD] 제20대 대통령선거와 함께 치러진 국회의원 보궐선거에서 당선된 정우택 국민의힘 의원(5선·충북 청주시상당구)은 최근 윤석열 대통령의 지지율이 하락세를 보이는 것에 대해 “5년만에 정권교체가 이뤄졌는데, 지금 윤석열 정부의 여러 모습이 우리 국민들의 정권교체를 통한 기대나 염원에 못 미친 것이 아닌가 생각한다”고 밝혔다. 정우택 국민의힘 의원은 21일 오후 줌 화상 연결을 통해 진행된 &lt;폴리뉴스&gt; ‘김능구의 정국진단’ 인터뷰에서 “문재인 정부 때 답답한 정치나 행정‧사회 전반에 걸친 모순적 행동, 사과할 줄 모르는 오만 등에서 벗어나 윤 정부는 시원한 모습을 보여줄 줄 알았는데 아직 보여주지 못하고 있지 않나”라며 이렇게 말했다. [김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 [이슈] 사상 첫 총경 회의에 정치권도 술렁…與 "집단행동" vs 野 "정당행위" [폴리뉴스 김상준 기자] 윤석열 정부의 경찰국 신설하겠다는 결정에 대해 전국 경찰서장들이사상 처음으로 이를 반대하는 집단행동에 나섰다. 다만, 정치권에서는 이를 두고 입장차이를 보이고 있다. 여당에서는 치안지역을 벗어난 집단행동이라며 엄정대처를 요구했고, 야당은 정당한 행위라고 목소리를 높였다. 24일 관련업계에 따르면 전날 충남 아산 경찰인재개발원에서 열린 전국 경찰서장 회의에는 전국에서 온·오프라인으로 총경 190여 명이 참석했다. 총경들은 이날 회의가 끝난 후 입장문을 통해 "많은 총경이 행안부 장관의 경찰청장에 대한 지휘규칙이 법치주의를 훼손한다는 점에 공감하고 우려를 표했다"고 밝혔다. 이어 "참석자들이 기본적으로 민주주의 근간인 견제와 균형에 입각한 민주적 통제에는 동의하지만, 경찰국 설치와 지휘규칙 제정 방식의 행정통제는 역사적 퇴행으로 부적절하다는 데 의견이 모였다"고 덧붙였다. 그러면서 "국민 안전에 미치는 영향이 지대한 사안에 국민, 전문가, 현장 경찰관의 다양한 의견을 수렴하는 절차가 미흡했다는 점에 대한 비판도 있었다"고 강조했다. ◆ 4시간 토론끝 향후 대응 방안 마련 총경들은 이날 회의에서 향후 경찰이 국민의 통제를 받는 경찰로 개혁 [노동일의 법과시대정신] 수사 자제를 국정 협조의 조건으로 내세운 민주당의 ‘수사 거래’ 스마트 심리상담 전문가 양성을 위한 '스마트심리상담사 3급 자격과정' 개설 18년째 '독도 영유권' 억지 주장한 日, "한일안보협력 중요" 강조 검찰, 은수미 전 성남시장 징역 5년 구형…은 "부정청탁·뇌물 받지 않아" 폴리TV 더보기 [폴리TV][김능구의 정국진단] 정우택 국민의힘 의원① “尹대통령 지지율 하락, 정권교체 기대에 못 미쳐 실망감” [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 24일 17시 35분 최상단으로</t>
+  </si>
+  <si>
+    <t>“떠나요 제주도∼” 관광업체 합동세일 이벤트 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS “떠나요 제주도∼” 관광업체 합동세일 이벤트 입력 : 2018-08-08 03:00:00 수정 : 2018-08-07 22:51:55 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 숙박·렌터카 등 1260곳 9월 할인/해녀축제·음악회 등 경품도 ‘펑펑’ “제주도의 9월은 쇼핑 천국?” 들녘이 황금빛으로 물들어 가는 9월 제주에서 다채로운 축제와 함께 관광객 대상 할인 이벤트가 펼쳐진다. 7일 제주도와 제주도관광협회에 따르면 9월 한 달간 관광사업체 1260개 업체가 참여하는 쇼핑 할인과 가을 축제장 경품 제공 행사가 진행된다. 쇼핑 할인행사는 숙박업 450곳, 중앙지하상가 257곳, 관광·레저 142곳, 기념품 판매점 106곳, 렌터카 75곳, 음식점 74곳, 여행사 82곳, 누웨모르상가 37곳, 뷰티업체 20곳, 대여점 8곳, 특산품점 2곳 등에서 최저 4에서 70까지 할인한다. 일부 렌터카 업체는 최고 90까지 가격 파괴를 예고했다. 행운의 경품 행사는 다음달 열리는 가을 축제 기간 행사장과 공항, 항만 등에서 마련된다. 추첨을 통해 10만원에서 최고 100만원 상당의 관광 상품권을 받을 수 있다. 서귀포시 예래논짓물 일원에서 9월 1∼2일 열리는 ‘예래생태마을 체험축제’와 새연교 야외무대에서 같은 달 1∼22일 펼쳐질 예정인 ‘새연교콘서트’에서 경품 행운이 쏟아진다. 또 제주시 ‘산지천축제’(9월 7∼9일), 추자도 ‘참굴비 축제’(9월 14∼16일), ‘용연 선상음악회’(9월 14∼15일), ‘제주해녀축제’(9월 20∼22일)에서 관광객과 도민을 대상으로 경품권을 제공한다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20180807005176 0101070100000 0 2018-08-08 3:11:44 2018-08-07 22:51:55 0 “떠나요 제주도∼” 관광업체 합동세일 이벤트 세계일보 임성준 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>8월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 무더위 피한 실내 관광지 핫플레이스로 주목 기사최종편집일 2022-10-11 12:51 엑스포츠뉴스 검색 메뉴 랭킹 연예 스포츠 야구 축구 e스포츠 기획 포토 영상 검색 메뉴 로그인 랭킹 연예 스포츠 야구 축구 e스포츠 기획 포토 영상 연예 국내연예 가요 방송/TV 영화 드라마 해외연예 스포츠 야구 축구 농구 배구 골프 스포츠종합 e스포츠/게임 e스포츠 모바일게임 온라인게임 콘솔게임 게임일반 회사소개 이용약관 개인정보취급방침 제휴/광고/사진구입 문의 채용안내 공지사항 사회 8월 제주도 가볼 만한 곳 ‘브릭캠퍼스’, 무더위 피한 실내 관광지 핫플레이스로 주목 기사입력 2018.08.08 14:52 공유 김지연 기자 [엑스포츠뉴스 김지연 기자] 무더운 여름 휴양의 계절을 맞이해 꾸준한 인파가 몰리는 제주도는 많은 사람이 오가는 휴양지다. 이에 따라 많은 이들이 휴가철을 맞이해 8월 제주도 가볼 만한 곳을 찾으며 여행을 계획하고 있다. 요즘 제주도는 도심 일상 속에서는 경험할 수 없는 곳이 많아 각종 이색 체험거리와 볼거리 등으로 찾는 이들의 발걸음이 분주하다. 그 중에서도 특히 연일 지속되고 있는 폭염에 제주도를 찾는 여행객들에게도 시원하게 즐길 수 있는 실내 박물관 및 관광지들이 특히 인기를 얻고 있는데 그 중심에는 ‘브릭캠퍼스’가 있다. 제주시에 있는‘브릭캠퍼스’는 효리네민박에 출연한 제주 레고박물관으로불리며 사람들의 발길을 모으고 있다. 브릭은 레고와 같은 벽돌 모양의 완구로 브릭캠퍼스 내에는 280조각 이상을 사용한 전시품 및 예술 작품을 만들어 놓았다. 동심으로 돌아간 듯한 느낌에 아이와 어른들 모두가 함께 즐길 수 있는 곳으로 유명하다. 브릭캠퍼스는 500평의 큰 규모를 자랑하며 들어가는 입구부터 정원, 졸업 기념 포토존 등이 있어 제주도 사진 찍기 좋은 곳으로도 불리고 있다. ‘언어의 정원’, ‘갤러리’, ‘플레이’, ‘카페’ 등의 각각의 동으로 구성돼 있다. 입구에서 가장 먼저 만나는 곳은 야외 전시장인 ‘언어의 정원’으로 길을 따라 심어진 나무마다 다양한 브릭으로 만들어진 말풍선을 전시한 것이 특징이다. 정원을 지나면 볼거리가 가득한 ‘갤러리’ 동에서는 다양한 브릭 작품들이 관람객들의 눈을 사로잡는다. 실제 작동하는 매킨토시 컴퓨터, 다양한 영화 속 장면을 보여주는 디오라마, 월드컵 경기장과 관람객들을 디테일하게 표현한 ‘2002 월드컵 이탈리아전’ 등 다채로운 테마의 브릭 작품들이 놀라움을 선사한다. ‘플레이’ 동에서는 다양한 브릭 작품을 마음껏 만들어볼 수 있어 아이와 함께 방문하기 좋은 곳으로 만족도가 높다. 브릭 자동차를 만들어 경주해볼 수 있도록 자동차 레이스가 있으며 캐릭터 모자이크 만들기, 초상화 만들기, 브릭 액세서리 만들기 등 다양한 브릭 체험 활동이 가능하다. 체험과 함께 벽면에는 방문객들이 만들어 놓은 브릭 작품들도 전시돼 있어 다양한 상상력을 엿볼 수 있다. 다양한 전시 뒤, 출출해진 배를 달래고 싶다면 ‘카페’ 동으로 이동하기를 추천한다. 카페에서는 브릭 모양의 케이크와 빵, 알록달록한 다양한 색감의식재료를 활용한 브릭 버거가 대표적이다. 다른 곳에서는 찾아보기 어려운 독특한 비주얼과 건강한 맛으로 일부러 찾아오는 이들도 많다. 제주 브릭캠퍼스 관계자는 “제주 국제공항에 최근 전시해 둔 브릭 작품을 보고 방문해주시는 분들도 상당하다. 공항과도 가까워 제주여행 첫 코스나 마지막 코스로 즐기기에 접근성이 좋으며, 요즘 같은 무더운 여름날 이색 실내 제주 관광지, 명소, 데이트코스 등을 찾으시는 분들이라면 다양한 프로그램이 갖춰져 있는 브릭캠퍼스에서 제대로 된 여행을 즐기기를 추천한다.”고 전했다. 김지연 기자 ⓒ 엑스포츠뉴스 (https://www.xportsnews.com) 무단전재 및 재배포 금지 / 기사제보 및 보도자료 press@xportsnews.com ▶ '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 ▶ 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 ▶ "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' ▶ '나는솔로' 영자, 여행 후폭풍…영식과 결별설→줄줄이 손절 ▶ 김창환, 미스코리아 딸 자랑…정해인과 MC까지? 기사추천 0 지금 사람들이 많이보는 뉴스 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" 신화 신혜성, 도난차량서 음주측정 거부…현행범 체포 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 박하선 딸 "살려주세요" 도움 요청…"외국이면 끌려가" '한영♥' 박군 "연예계 은퇴 생각…" 솔직 고백 시선집중 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 안현모 "♥라이머와 정리했었다…" 솔직 고백 후 근황 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 실시간 인기 기사 더보기 연예 스포츠 게임 1 안현모 "결혼 전 ♥라이머와 정리했었다…없던 일 하자고" (차차차)[전일야화] 2 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼…"비공개 스몰웨딩" [공식입장] 3 '나는솔로' 영자, 필리핀 여행 후폭풍…영식과 결별설→출연자들 손절 4 신화 신혜성, 도난차량서 음주측정 거부…현행범 체포 5 '자산 50억' 10기 정숙, 명품 선물들 언박싱…어마어마 6 공효진♥케빈오, 부부 된다…오늘(11일) 美서 결혼식 7 '이영하와 이혼' 선우은숙, 재혼 발표…상대 누군가 보니 8 안영미, 이혼설 해명 후…♥남편과 미국서 재회+식욕까지 폭발 9 '내년 결혼' 한정민♥조예영, 벌써 살림 합치나…"이사 준비" 10 '복귀' 홍진영, 머리가 젖어도 인형미모…'물미역 샷' 1 '94분' 이강인, 기회 창출 양 팀 최다...팀 내 평점 3위 2 '이강인 선발' 마요르카, 엘체 원정 선발 명단 발표 [라리가 8R 라인업] 3 'PK 실축→성공→뺨따귀→퇴장'...이강인 파트너의 '운수 좋은 날' 4 '무리키 동점골→퇴장' 마요르카, '최하위' 엘체와 1-1 무 [라리가 8R 리뷰] 5 박태환 넘어선 황선우, 전국체전 200m 새 역사...이틀 연속 金 수확 6 김하성의 첫 NLDS, 유리아스-커쇼 철벽 원투펀치 만난다 7 '왕좌 도전' 울산, 동해안 더비 잡으면 '17년 한' 푼다 [K리그1 36R 프리뷰] 8 폭우+정전 '환장' 콜라보...마요르카 엘체 원정 킥오프 30분 연기 9 변성환호, U17 아시안컵 본선 진출 확정 10 영원히 함께 할게요...토트넘, 故 벤트로네 코치 위해 '상록수' 심었다 1 [롤드컵] 1승 간절했던 '피넛' 한왕호 "RNG전 밴픽, 코인 없는 조합이었다" 2 '도란' 최현준 "RNG전, 상대 분석 부족했다…우승 후보 부담감 없어" [인터뷰] 3 [롤드컵] 포기하지 않겠다는 '오너' 문현준 "남은 경기서 T1 저력 보여주겠다" 4 [롤드컵] DRX, 완벽한 경기력으로 TES 압살…1승 1패 달성 5 [롤드컵] 패배 후 다시 시작한 '바이퍼' 박도현 "T1전 지고 나니 내려놓으니 편안해" 6 [롤드컵] LCK 연패 끝!…젠지, 100T 잡고 '첫 승 신고' 7 [롤드컵] 강해도 너무 강한 EDG, 프나틱 제압하고 '2승 달성' 8 [롤드컵] '스카웃' 이예찬 "T1전 패배 후 메타 이야기 많이 나눠…남은 3경기 다 이기겠다" 9 [롤드컵] T1, 전 라인 압도하며 C9 격파…2승 1패 달성 10 [롤드컵] 바텀은 재미 없었다는 '베릴' 조건희 "로그 특성 알아…다음엔 꼭 이길 것" 엑's 이슈 더보기 선우은숙의 4살 연하남…'재혼' 유영재 아나운서 누구? [엑's 이슈] 에이티즈 우영, '스맨파' 바타 표절 의혹 저격?…안무 원작자도 동참 [엑's 이슈] [단독] 부상으로 실려갈지라도...홍자의 열정② 안테나 측 "유재석, 응원 편지만 부탁"…팬 선물 거절에 갑론을박 [엑's 이슈] 아이돌 출신 배우 스토킹→경찰관 폭행…30대 남성 구속 송치 주간 인기 기사 더보기 연예 스포츠 게임 1 신지, "김종민과 10년 비밀연애 끝…상견례 마쳐" 언급 후 살 쏙 빠진 근황 2 "대구시민 우롱"…전국노래자랑, 터질 게 터졌나 '갑론을박' 3 김원준 "비행기 추락해…의식 회복 후 중환자실로" 4 이재윤, 11월 결혼 발표…상대 누군가 보니 5 '진화♥' 함소원, 대박 난 근황…네티즌 축하 쇄도 6 박하선 딸 "살려주세요" 도움 요청…"외국이면 끌려가" 7 박진희 "알코올성 치매 증상"…신애라 "심각한 상황" 8 '권오중♥' 엄윤경, 58세 맞아?…비키니 입고 '몸매 자랑' 9 이소라, 안면골절 사고 "콧대 없어져"…사진 공개 10 '한영♥' 박군 "연예계 은퇴 생각…" 솔직 고백 1 LG 고우석, 절친 이정후 女동생과 결혼..."멋진 남편 되도록 노력할 것" 2 생전 마지막 인터뷰서 손흥민 언급...손흥민은 그에게 특별했다 3 "오심이 맞다" 베이징 쇼트트랙 편파판정 언급한 최용구 심판, 1년 자격정지 징계 4 나폴리는 '김민재 홀릭'...일식당 방문도 '대서특필' 5 '화려한 PS 데뷔' 김하성, 멀티히트+3출루 펄펄…SD 기선제압 성공 6 [오피셜] 나폴리 비상...'김민재 파트너' 허벅지 근육 파열 7 '손케 듀오 투톱?' 토트넘 프랑크푸르트 원정 예상 선발 라인업 8 이탈리아 안 가...'징역 9년형' 호비뉴의 '배째기' 9 '최강야구' 질문에 진지한 오재원 "투수로 도전해보고 싶다" 10 형이 거기서 왜 나와?...맨유 팬, 35세 '베테랑' 깜짝 활약에 감탄 1 메타크래프트, 여성향 웹소설 플랫폼 '몽글몽글' 베타서비스 시작 2 [롤드컵] 1승 간절했던 '피넛' 한왕호 "RNG전 밴픽, 코인 없는 조합이었다" 3 [롤드컵] 'LCK 1시드가 무너졌다' RNG, 웨이 앞세워 '젠지 압살' 4 [롤드컵] DFM, 기세 제대로 탔다…RNG 잡고 1세트 승리 5 '도란' 최현준 "RNG전, 상대 분석 부족했다…우승 후보 부담감 없어" [인터뷰] 6 [롤드컵] 포기하지 않겠다는 '오너' 문현준 "남은 경기서 T1 저력 보여주겠다" 7 ‘김지성 VS 유영진’…‘ASL 시즌14’ 결승, 내일(8일) 열린다 8 [롤드컵] '담원 기아도 졌다' 징동, 힘든 경기 난전으로 극복…'LCK 패배의 날' 9 [롤드컵] '페이커의 화려한 아칼리' T1, 누워도 이긴다…'EDG 격파' 10 [롤드컵] 'G2 쉬운데?!' 담원 기아, 라인전부터 박살…롤드컵 첫 승 화보 뉴진스 민지-하니, 무결점 비주얼 조합 르세라핌 사쿠라-카즈하, 청순한 화이트 여신들 회사소개 이용약관 개인정보취급방침 제휴/광고/사진구입 문의 채용안내 공지사항 서울시 강남구 테헤란로 8길 11-4 신도빌딩 7층 Tel: 02-3448-5940-1  |  Fax: 02-3448-5942 등록번호: 서울시 아 00592 |  등록일자: 2008년 6월 4일 발행일자: 2008년 6월 4일 |  발행인·편집인 : 우상균 청소년보호책임자 : 이호준 Copyright ⓒ xportsmedia, All rights reserved. 통합검색</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 오키나와 관광컨벤션뷰로와 공동협력 마케팅 협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 日 오키나와 관광컨벤션뷰로와 공동협력 마케팅 협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 日 오키나와 관광컨벤션뷰로와 공동협력 마케팅 협약 체결 기자명 고병수 기자 입력 2018.08.05 16:11 수정 2018.08.05 16:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 지난 2일 제주종합비즈니스센터에서 일본 오키나와관광컨벤션뷰로(회장 타이라 쵸케이)와 관광·문화·스포츠 협력 비즈니스 마케팅교류 활성화를 위한 협약을 체결했다고 5일 밝혔다.관광협회와 오키나와 관광컨벤션뷰로는 지난 2006년 우호친선협정을 체결해 지속 교류해왔으며 보다 구체적인 사업을 추진해 나가고자 관광·문화·스포츠 교류 활성화를 위한 공동 협력 마케팅 협약을 체결하게 됐다.이번 협약 체결로 양 지역의 관광시장 동향과 과제를 공유하며 관광객 유치를 위한 공동 협력 세일즈 마케팅 실시, 마라톤 대회(축제)에 상호 선수 및 교류단 파견, 수용태세 활용을 위한 직원 간 교류회 실시 등을 정례적으로 지속하기로 약속했다. 관계자는 "이번 협약을 통해 통상적인 우호교류에서 진일보해 상호 관광상품 개발과 공동마케팅 추진으로 실질적인 관광객 유치에 기여할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>비자림로 숲길 훼손에 제주도 해명, 도민과 관광객 시선은 싸늘… 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 12.3℃ 구름많음제주 18.0℃ 흐림고산 16.0℃ 구름많음성산 16.9℃ 구름많음서귀포 18.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 비자림로 숲길 훼손에 제주도 해명, 도민과 관광객 시선은 싸늘… 이영섭 gian55@naver.com 등록 2018.08.08 10:44:44 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 도내 주요 언론을 통해 보도된 '도로확장을 위한 비자림로 숲길 훼손'에 대해 제주도가 해명에 나섰다. ▲ 도로 확장이라는 명목 아래 삼나무가 뽑혀나간 비자림로의 모습제주도는 8일, 대천에서 송당 구간 비자림로 도로건설공사는 환경영향평가법에 따라 2015년 5월에 영산강유역환경청과 소규모영향평가 협의가 완료됐으며, 송당리, 성산읍 지역에서 비자림로를 경유하여 번영로를 이용하는 차량이 날로 증가함에 따라 교통량을 해소하기 위해 추진됐다고 설명했다.이어 비자림로 확포장공사는 매년 증가하는 관광객과 성산읍지역 및 성산항 농수산물 수송을 원활히 하기 위하여 교통량이 많은 구간인 대천과 송당간 2.9km 구간을 우선 확포장하고 있으며, 향후 제2공항 건설이 가시화되면 국가지원지방도 노선 중 대천과 표선 구간을 대천에서 송당, 금백조로로 경과지 변경하여 송당에 수산간을 4차로로 확포장할 계획이라고 덧붙였다. 이 과정에서 발생한 삼나무 훼손과 관련해서는 소규모 환경영향평가 협의 시 영산강유역환경청에서 제시된 의견으로서, 오름 훼손 발생과 도로 양측 삼나무림의 훼손을 최소화 할 수 있는 방안으로 일부 도로 노선을 조정했고 불가피하게 삼나무가 훼손되는 구간은 편백나무 등을 식재하여 도로 경관에 미치는 영향이 최소화되도록 설계에 반영했다고 해명했다.이어 도로확장으로 삼나무림 훼손이 불가피한 면이 있으나 앞으로 경관시뮬레이션을 통해 오름 조망과 대체 수종 식재 조치를 취해나갈 예정이라고 설명했다.이런 제주도의 해명에도 도민들과 관광객들의 시선은 싸늘하기만 하다.▲ 훼손되기 전 비자림로의 모습사려니숲길 삼나무 도로와 함께 제주의 대표적인 드라이브 코스였던 비자림로를 훼손한 것에 대해 "빈대 잡으려고 초가삼간 태운다"는 반응이 대부분인 것이다.한 관광객은 "비자림로의 풍경이 너무 아름다워 관광객들 사이에서는 꼭 경험해봐야 할 드라이브 코스로 꼽히고 있다"며, "삼나무가 아름다워 관광객 차량이 몰리는데, 차가 막힌다고 삼나무를 베어버린 근시안적인 정책에 실소를 금할 수 없었다"고 말했다. 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 제주도, 환경부 지적에 따른 비자림로 주변식생 추가조사 실시 2019-09-25 영산강유역환경청 "비자림로 공사 멈춰야", 제주도 정밀조사 실시 2019-05-31 비자림로 확장공사 재개, 2021년 준공 예정 2019-03-18 설 연휴 앞둔 제주시, 신규도로 건설현장 안전점검 시행 2019-01-29 비자림로 확장공사 결국 재추진, 반대 목소리는 여전 2018-11-29 업무복귀한 원희룡 지사, "비자림로, 아름다운 생태도로 만들라" 2018-08-13 삼나무 벌채로 훼손된 비자림로의 풍경 2018-08-11 비자림로 훼손반대 국민청원에 도, 공사중단 발표 2018-08-10 1건의 관련기사 더보기 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 서귀포시, 허위 과다입원환자 근절 부당한 보험료 인상 피해 줄이기에 나서 11:22 서귀포시, 2022년 교통유발부담금 21억 원 부과 11:21 제주시, 읍면지선에 친환경 소형전기버스 2대 도입 11:18 제주시, 겨울철 자연재난(대설․한파) 대비 사전점검 11:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 12시 30분 최상단으로</t>
+  </si>
+  <si>
+    <t>(제주관광공사) 제주도 해녀 문화 대만 시장에 알리다 &lt; 미노출 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 (제주관광공사) 제주도 해녀 문화 대만 시장에 알리다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 미노출 (제주관광공사) 제주도 해녀 문화 대만 시장에 알리다 기자명 박기홍 기자 입력 2018.08.02 20:15 수정 2020.03.11 20:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [서울=내외경제TV]박기홍 기자 = ?□ 제주특별자치도와 제주관관공사(사장 박홍배)는 지난 7월 31일부터 8월 3일까지 4일 동안 대만 시장 타깃 제주 해녀 콘텐츠 홍보 팸투어를 추진하고 있다고 2일 밝혔다. ?□ 지난 2016년 12월 유네스코 인류무형문화유산으로 등재된 제주해녀를 글로벌 관광콘텐츠로 육성하기 위해 추진하는 이번 팸투어단은 지난 3월 대만 소비자를 대상으로 추진했던 해녀체험 프로그램 참가자 선발대회(온라인)를 통해 선정된 참가자 4인과 대만 주요 언론매체 관계자로 구성됐다.?□ 제주만의 독특한 해녀 문화를 홍보하기 위해 기획된 이번 팸투어단은 해녀박물관 답사 및 성산포 물질공연 관람 등을 통해 해녀 문화를 배우고, 2일 오후에는 한수풀 해녀체험학교를 방문하여 제주 해녀와 함께 해녀 교육 및 물질 체험 등 일일체험을 함으로써 제주 해녀의 삶을 몸소 느꼈다.?□ 이 외에도 청정한 제주 바다에서 즐길 수 있는 요트투어, 투명 카약체험 등 하절기 해양레저 관광자원과 천혜의 자연 경관을 이루는 성산일출봉, 천제연폭포, 바다 캔들 만들기 체험, 제주향토요리, 제주이색카페 등 제주에서만 즐길 수 있는 다양한 관광 콘텐츠를 체험했다. ?□ 이들은 제주해녀 이미지를 대만 관광객들에게 각인시키기 위해 대만의 주요 언론매체인 애플데일리(?果日報), YAM 뉴스(蕃薯藤), Az Travel 여행생활잡지, 넥스트매거진(壹週刊)을 통한 홍보활동을 추진하는 한편, 해녀체험 프로그램 선발자 4인의 개인 SNS 채널 등의 온·오프라인 홍보를 추진하고, 해녀문화 홍보영상 제작도 함께 추진하여 대만 현지에 소개할 예정이다.?□ 제주관광공사 관계자는 "제주해녀문화는 제주 여성의 강인한 생활력, 특유의 공동체 의식 등 제주의 문화적 정체성을 보여주는 대표적인 고유 문화로서 이번 팸투어를 통해 대만 시장에 제주의 독특한 문화를 알릴 수 있는 좋은 기회가 될 것"이라며 "제주 해녀문화가 글로벌 관광 콘텐츠가 될 수 있도록 향후 지속적으로 홍보해 나가겠다"고 말했다.(출처=제주관광공사) 박기홍 기자 ghpark@nbntv.co.kr 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다 서울경제 서울경제TV SEN Plus 한국일보 리드온 회원가입 로그인 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 사이트맵 사이트맵 닫기 검색 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 IR클럽 ON AIR 통합 검색 검색 PLUS 바로가기 제주도-도 관광협회, 9월 한달 간 도내 전역서 관광객 위한 이벤트 펼친다 경제·사회 입력 2018-08-27 17:57:00 수정 2018-08-27 18:00:12 방현준 기자 0개 가 가 가 가 제주특별자치도와 도 관광협회가 9월 한달 동안 제주를 찾은 관광객들에게 풍성한 혜택을 제공한다. 다가오는 9월 가을 관광철을 맞아 내국인관광객 활성화를 위해 마련된 이번 이벤트에는 숙박업, 기념품, 음식점 등 도 전역 관광사업체 1,260개 업체가 이번 행사에 참여한다. 이들 업체는 행사기간 중 제주를 찾은 관광객들에게는 할인, 기념품 및 경품 제공 등의 혜택을 제공할 예정이다. 행사기간 중 탐나오를 통해 숙박업, 관광지, 기념품, 음식점 등의 관광상품을 구매할 경우 최저 4%에서 70%에 이르는 할인 혜택이 주어지며 일부 렌터카의 경우 90%까지 할인 받을 수 있다. 면세점, 대형마트, 지하상가, 쇼핑거리 등 참여업체 방문 시에도 다양한 할인과 추가 혜택이 제공된다. 또한 9월 한 달 동안 제주의 공항, 항만 및 가을축제 현장에서 제공하는 경품권 추첨을 통해 500명에게는 최저 10만원에서 최고 100만원권 상당의 관광상품권이 증정 된다. 9월에는 제주해녀축제, 용연선상음악회 등 제주의 문화적 특성을 살린 축제가 개최 예정이어서 이번 이벤트가 축제의 재미를 배가해줄 것으로 기대된다. 이 밖에도 행사 참여업체를 3회 이상 방문하면 15,000원 상당의 제주관광이용권도 지급된다. 제주도 관계자는 “모바일 인증을 통해 받을 수 있는 이 이용권은 행사 참여 업체의 매출 증대를 유도함과 동시에 관광객들에게는 풍성한 가을의 기쁨을 선사할 것”이라고 전했다. 제주도는 보다 많은 관광객들이 이번 행사에 참여할 수 있도록 주요 포털 및 SNS 온라인홍보를 적극 추진하고 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 예정이다. 한편, 이번 행사에 대한 상세한 정보는 인터넷(탐나오)상에 행사전용 웹페이지에서 확인 가능하다. 제주관광협회는 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재 가능하도록 함으로써 온라인 참여를 유도할 예정이다. 자세한 행사 내용 및 관광객 혜택은 탐나오(tamnao) 사이트나 어플에서 확인하면 된다./방현준기자hj0608@sedaily.com [ⓒ 서울경제TV(www.sentv.co.kr), 무단 전재 및 재배포 금지] 가 가 가 가 관련뉴스 "네트워크 안정성 높여요"…LG유플, 양자내성암호 광전송장비 도입 롯데케미칼, 2차전지 핵심소재 시장 진출…전지소재사업 밸류체인 구축 우미건설, 공공지원 민간임대주택 ‘파주 운정신도시 우미린 센터포레’ 주택 홍보관 오픈 BPA, 항만물류통합플랫폼 모바일 앱(올컨e) 컨테이너 삼남매 캐릭터 공개 소방청, '국가핵심기반시설-지하연계시설' 민·관 합동 중앙소방특별조사 실시 한국조선해양-두산퓨어셀, 연료전지 대형선박 실증 나선다 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 한국투자證, 테슬라·애플 기초 ELS 50억 규모 모집 지더블유바이텍, 이사 선임 등 임시주주총회 성료 미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 유안타證, 해외주식 소수점 거래 서비스 오픈 공일이티씨·서울디자인재단, 2차 NFT 공모전 시작 "네트워크 안정성 높여요"…LG유플, 양자내성암호 광전송장비 도입 롯데케미칼, 2차전지 핵심소재 시장 진출…전지소재사업 밸류체인 구축 한국조선해양-두산퓨어셀, 연료전지 대형선박 실증 나선다 LS그룹, KT서브마린에 지분 투자…글로벌 경쟁력 강화 한국마사회-한국마사회시설관리 “건전경마 문화 정착” ‘포항 푸르지오 마린시티’, 청약 일정 돌입 답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 LH, 오늘부터 행복주택 3,570호 청약접수 실시 [SEN부동산 캘린더] 10월 2주차 신규 단지 공급 일정 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 손태승 회장, 글로벌 ESG 국제기구 리더만나 협력 논의 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 5한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 8답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 9유안타證, 해외주식 소수점 거래 서비스 오픈 10뉴욕증시, 악재 부각에 하락세 이어져…나스닥 1.04%↓ 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 더보기 오늘의 날씨 2022-10-12(수) 06:00 구름조금 마포구 상암동7.0℃ 강수확률 0% 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 신규 프로그램(해외선물의 신 시즌3) 런칭!! 신규 프로그램(윤태진의 허니투데이) 런칭!! 신규 프로그램(민박사의 주식 훈민정음) 런칭!! 회사소개 개인보호정책 광고 및 제휴 안내 기사 구매 안내 고객센터 IR클럽 서울특별시 마포구 월드컵북로 400 서울산업진흥원 3, 4, 8, 9층 SEN 서울경제TV 서울특별시 종로구 율곡로 6, 트윈트리빌딩 비동 16층(중학동) 제호 : SEN서울경제TV 등록번호 : 서울, 아52887 등록일 : 2020년 02월 19일 발행인 및 편집인 : 이상석 고객센터 : 1577-7451 사업자등록번호 : 107-81-84028 통신판매업신고번호 : 제 2018-서울종로-0855호 대표자 성명 : 이상석 Copyright 2012 ⓒ ㈜서울경제티브이 Corp. All Rights Reserved. 서울경제TV SEN ON AIR 편성표 VOD 소개 프로그램 정보 VOD 더보기 온에어 팝업창 닫기 온에어 팝업창 넓게 펼치기 접기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 한국투자證, 테슬라·애플 기초 ELS 50억 규모 모집 지더블유바이텍, 이사 선임 등 임시주주총회 성료 미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 유안타證, 해외주식 소수점 거래 서비스 오픈 공일이티씨·서울디자인재단, 2차 NFT 공모전 시작 롯데케미칼, 2차전지 핵심소재 시장 진출…전지소재사업 밸류체인 구축 한국조선해양-두산퓨어셀, 연료전지 대형선박 실증 나선다 LS그룹, KT서브마린에 지분 투자…글로벌 경쟁력 강화 한국마사회-한국마사회시설관리 “건전경마 문화 정착” 'SK 테크 서밋 2022' 개최… SKT "ICT 기술 공유해요" ‘포항 푸르지오 마린시티’, 청약 일정 돌입 답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 LH, 오늘부터 행복주택 3,570호 청약접수 실시 [SEN부동산 캘린더] 10월 2주차 신규 단지 공급 일정 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 손태승 회장, 글로벌 ESG 국제기구 리더만나 협력 논의 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 5한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 8답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 9유안타證, 해외주식 소수점 거래 서비스 오픈 10뉴욕증시, 악재 부각에 하락세 이어져…나스닥 1.04%↓ 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 더보기 오늘의 날씨 2022-10-12(수) 06:00 구름조금 마포구 상암동7.0℃ 강수확률 0% 주가와 시세 전일 종가 기준 톰슨로이터(Refinitiv) 해외 주가지수 국제 외환시세 국제 원자재시세 국제 금리시세 종목 가격 전일대비 DOW 25,798.42 352.40 S&amp;P 500 2,809.91 102.00 Nasdaq 7,655.48 99.00 Nikkei 22,841.12 33.00 HIS 25,462.33 33.12 종목 가격 전일대비 USD/KRW 1,115.00 5.40 USD/JPY 112.25 3.40 EUR/USD 1.1532 0.0042 GBP/USD 1.3110 0.0034 USD/CNY 6.9234 0.0119 종목 가격 전일대비 금 (Gold) 1,227.3 3.33 은 (Silver) 14.33 1.22 동 (Copper) 2.7735 0.003 원유 (WTI) 71.25 1.23 원유 (Brent) 80.94 1.23 원유 (Dubai) 70.33 1.23 종목 가격 전일대비 3개월 USD Libor 2.44456 3개월 EURIBOR 0.318 3개월 JPY Libor 0.08350 3개월 GBP Libor 0.08350</t>
+  </si>
+  <si>
+    <t>가파도 어떤 곳? 오지에서 뜨는 관광지로...제주도 실종 여성 발견 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 가파도 어떤 곳? 오지에서 뜨는 관광지로...제주도 실종 여성 발견 김민정 기자 min55@kookje.co.kr |   입력 : 2018-08-02 00:08:43 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 제주도 캠핑 중 실종된 30대 여성으로 추정되는 시신이 서귀포시 가파도 서쪽 해상에서 발견돼 가파도에 관심이 쏠린다.VISIT 제주 홈페이지 대정읍 모슬포항에서 5.5km 떨어진 가파도는 제주도 부속섬 중 4번째로 큰 섬이다. 섬 북쪽에는 상동마을이 남쪽에는 하동마을이 있으며 현재 130여 가구에 250여 명이 살고 있다.전에는 최남단 섬 마라도에 밀려 관광지로는 상대적으로 오지에 속하는 섬이었으나, 청보리밭 관광과 올레길이 조성되면서 하루에도 정기적으로 3-4회의 여객선이 왕복운항하는 섬이 되었다.가파도는 무인도였으나 1750년(영조26) 제주 목사가 나라에 진상하기 위한 소를 키우기 위해 주민들의 섬 출입을 허가하면서 사람이 살기 시작했다.섬의 이름의 유래는 가오리를 모양이 가오리(가파리)를 닮아 가파도가 되었다는 설과 덮개 모양을 닮아 ‘개도(蓋島)’로 부르던 것이 가파도라 굳어졌다는 설 등이 있다.한편, 지난 25일 제주도 제주시 구좌읍 세화포구에서 가족 캠핑 중 실종된 30대 여성 최모(38) 씨의 시신이 가파도 서쪽 해상에서 발견됐다. 경찰은 목걸이와 문신 등으로 최 씨임을 확인했으며 부검할 예정이다. ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [핫이슈] 코로나19 연휴 진단 검사량 급감…코로나 98일 만에 1만 명 밑으로 코로나 이틀째 1만 명대…14주 만에 일요일 최저치 코로나 사망자 닷새 만에 40명대로 올라 코로나 위중증 59일 만에 최저…신규확진 2만 명대 코로나 위중증 58일 만에 최저…해외유입도 감소세 뚜렷 요양병원 대면 면회 재개… 다시 맞잡은 엄마 손 ‘뭉클’ 코로나 이틀째 1만 명대…사망자 63일 만에 10명대 확진자 급감에 한산해진 선별진료소 사람이 안전한 교통문화를 ‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 코로나 백신 피해 리포트 "백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 기획시리즈 고영삼의 인생 이모작…한 번 더 현역 기후위기는 아동권리 위기 김해창교수의 에너지전환 이야기 난치병 환우에 새 생명을 &lt;&gt; 내고장 문화현장 뒤집힌 정치 지형에 지역 현안 어떻게 되나 '명품마을' 혁신을 찾아서 부산시장노년일자리지원센터 부울경을 빛낸 출향인 사람이 안전한 교통문화를 사진가 김홍희의 Korea Now 어린이가 바라는 공약 위기가정 긴급 지원 이야기 공작소-피란수도 부산…1023일간의 이야기 일상 속 수학…산업 속 수학 지금 법원에선 지역이 주도하는 지역혁신 코로나 백신 피해 리포트 해피-업 희망 프로젝트 BTS 엑스포 콘서트 부산 알릴 기회다 UN공원에 잠든 용사들…아직 끝나지 않은 이야기 눈높이 사설 [전체보기] 역대 최악 출산율, 코앞에 닥친 지방소멸 일찍 온 열대야…폭염 피해 예방을 뉴스 분석 [전체보기] 서부산 ‘쇼핑몰 삼각편대(롯데·신세계·현대百)’ 시너지…유통상권 팽창 예고 “지금 임금으론 생활 어렵다” vs “매일 출근도 아니면서…” 박기철의 낱말로 푸는 인문생태학 [전체보기] 분화와 분류 ; 여섯 가지 킹덤 근원과 원천: 에너지의 구분 부산 교육 현장에서 [전체보기] 늘어나는 다문화 학생, 편견과 차별 벗어나 꿈 이룰 수 있게 돕자 50분의 수업, 학생들 꿈과 가능성을 확인하는 시간 스토리텔링&amp;NIE [전체보기] ‘헌책방 골목’ 미군 만화책이 인기만점이었대요 NFT(대체불가토큰)는 복제 불가능한 저작권 증명서랍니다 신통이의 신문 읽기 [전체보기] 지구촌 기후 이변, 탄소배출 줄여달라는 SOS 뉴스인물에 던질 질문 만들면 대화의 기술 쑥쑥 어떻게 생각하십니까 [전체보기] BTS 軍면제 “국격 높여 자격” vs “상대적 박탈감” 포토뉴스 [전체보기] “희귀종 댕구알버섯, 또 찾았어요” 지리산 자락 산양삼 씨앗 따기 오늘의 날씨- [전체보기] 오늘의 날씨- 2022년 10월 11일 오늘의 날씨- 2022년 10월 10일 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 &lt; 책과 사람 &lt; 기사본문 - 한국강사신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-11 12:50 (화) 로그인 회원가입 전체기사 전체메뉴 버튼 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 책과 사람 아이들과 제주도 가볼만한 곳 추천, 제주도 관광 신간도서 『제주도 여행백서』 기자명 한상형 기자 입력 2018.08.10 16:02 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저자 손만기의 『제주도 여행백서 : 대한민국 여행자를 위한, 2018-2019』 [한국강사신문 한상형 기자] 대한민국의 영원한 파라다이스 제주도! 세계인의 휴양지이자 한국인이 가장 사랑하는 여행지, 제주도는 볼거리와 먹거리가 넘쳐나는 곳이다. 손만기의 『제주도 여행백서 : 대한민국 여행자를 위한, 2018-2019(나무자전거, 2018)』는 제주의 구석구석 숨어 있는 볼거리, 즐길거리, 먹거리 그리고 카페까지! 가고 싶은 곳을 주저 없이 갈 수 있도록 꼼꼼하게 안내한다. 『제주도 여행백서』는 여행자의 일정과 스타일까지 고려한 맞춤정보들로, 항상 곁에서 가장 든든한 여행 가이드 역할을 할 것이다.“푸른 바다가 손짓하는 제주, 가볍게 떠나자!”『제주도 여행백서』는 제주도에 들어가는 방법부터 제주에서 이용할 수 있는 교통편, 떠나기 전 알아야 할 모든 정보를 알차게 정리했다. 또한 제주를 동부, 서부, 남부, 북부로 나누어 구석구석에 자리한 볼거리, 즐길거리 먹거리, 카페를 엄선하여 알차게 소개했다. 고민 없이 여행백서 한 권으로 가볍게 제주여행을 즐기자!“제주를 만끽할 수 있는 다양한 동선 제시”『제주도 여행백서』는 해안도로를 따라 도는 2박 3일, 이미 제주를 만났던 여행자를 위한 3박 4일, 비경과 오름을 만날 수 있는 4박 5일, 아이와 함께하는 추억을 만드는 2박 3일, 비가 내릴 때 가장 효율적인 2박 3일, 한라산 등반을 위한 6박 7일, 주머니 가벼운 여행자를 위한 2박 3일 일정 등 다양한 제주여행 동선을 제시합니다. 또한 북부(제주시), 서부, 남부, 동부의 지역에서 돌아볼 수 있는 추천일정도 담았다. 간편하게 알찬 일정으로 제주여행을 떠나자!“최신 정보와 트렌드로 무장한 2018~2019년 개정판!”항상 여행자로 북적거리는 제주도의 최신 트렌드를 반영하여 주요 관광지, 레스토랑, 숙소 등의 정보를 보강했으며, 가격 및 영업시간 등의 정보까지 꼼꼼하게 체크했습니다. 특히 각 지역(파트)에서 들러봐야 할 카페와 올라볼 만한 오름 등을 추가 수록하고 커피 맛으로 입소문을 타고 있는 카페를 스페셜페이지로 추가 구성했다. 이 책 『제주도 여행백서』는 총 7개 파트로, 여행준비부터 제주도에서 꼭 필요한 정보까지 바로 파악할 수 있도록 구성했다. 1파트에서는 제주를 이해할 수 있는 전반적인 내용과 여행준비 과정, 추천일정을 소개했다. 또한 2~5파트에서는 제주도를 지역별로 구분하여 명소, 먹거리, 카페 등의 섹션으로 구분하여 세세한 정보를 담았다. 6파트에서는 제주의 오름, 올레, 해안도로, 주변 섬을 주제별로 소개했다. 마지막 7파트에서는 제주의 다양한 숙박시설을 다뤘다. 책 중간중간에는 한라산과 한라산의 주변 명소, 오일장과 벼룩시장 같은 독립적인 볼거리와 테마 여행지를 스페셜페이지로 구분하여 담았다.‘제주 북부지역에서 반드시 둘러봐야 할 명소’로 동문재래시장, 두멩이골목, 사라봉, 한라수목원, 서문공설시장, 제주목관아, 용담해안도로, 용두암, 원당봉(불탑사, 원당사, 문강사), 제주4.3평화공원, 제주도립미술관, 내도 알작지, 신비의도로, 제주민속자연사박물관, 산천단 등을 소개한다.‘제주 동부지역에서 반드시 둘러봐야 할 명소’로 녹산로, 제주돌문화공원, 만장굴, 비자림, 산굼부리, 섭지코지, 성산일출봉, 에코랜드, 제주허브동산, 월정리해변, 김녕 성세기해변, 김영갑갤러리(두모악), 다희연, 메이즈랜드, 함덕 서우봉해변, 혼인지, 고망난돌쉼터, 해녀박물관, 교래자연휴양림, 조천 스위스마을 등을 소개한다. ‘제주 서부지역에서 반드시 둘러봐야 할 명소’로 용머리해안, 협재해변, 곽지 과물해변, 산방산(산방굴사), 서광다원(오설록티뮤지엄), 애월초등학교 더럭분교, 라온더마(馬)파크, 구엄리 돌염전(소금빌레), 생각하는정원, 애월 한담해변산책로, 월령리 선인장군락지, 송악산, 성이시돌목장, 순례자의교회, 수월봉, 제주표착기념관, 모슬포항, 방림원, 유리의성, 저지문화예술인마을, 제주초콜릿박물관, 추사관과 추사유배길, 공룡랜드, 낙천리 아홉굿마을, 항파두리항몽유적지, 차귀도 해적잠수함, 마린파크, 차귀도 등을 소개한다.‘제주 남부지역에서 반드시 둘러봐야 할 명소’로 수(水.風.石)박물관, 카멜리아힐, 샹그릴라요트투어, 쇠소깍, 작가의산책길(유토피아로), 새연교(새섬), 서귀포매일올레시장, 걸매생태공원과 오솔길벽화마을, 갯깍주상절리, 천지연폭포, 대포해안주상절리, 박수기정, 안덕계곡, 엉또폭포, 약천사, 원앙폭포, 정방폭포, 중문 색달해변, 남원 큰엉해안경승지, 외돌개, 위미리 동백군락지, 세계조가비박물관, 천제연폭포, 방주교회, 세계자동차박물관, 들렁모루 등을 소개한다.저자 손만기는 카메라 하나 들쳐 메고 전국을 여행하면서 아름다운 풍경을 글과 사진으로 기록하는 자유여행가이자 여행작가이다. 국내 다수 지자체 취재활동과 더불어, 여행 컨설턴트, 여행작가로서 왕성한 활동을 하고 있다. 지금도 끊임없이 전국 방방곡곡에 발도장을 찍으며 자료를 수집하고, 여행자들과 소통하고 있다. 저서로는 『서울·경기 여행백서』, 『전라도 여행백서』, 『대한민국 대표 맛집 1000』(공저) 등이 있다. 현재 충청남도 농촌체험마을 자문위원, 여행블로그 기자단 우수 회원 등으로도 활동 중이다. 주요기사 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” 장윤정 동화책 《모두의 눈 속에 내가 있어요》 “트로트의 여왕이 쓴 꽁냥꽁냥 생활 동화” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 “하는 일마다 성공하는 사람들의 비결은 무엇일까?” 정회도의 신간 ‘운의 알고리즘’ 한상형 기자 han@lecturernews.com 다른기사 보기 저작권자 © 한국강사신문 무단전재 및 재배포 금지 주요기사 [연애 잘하는 법] “질투: 집착과 질투의 차이” 『남자는 고쳐 쓰는 거 아니다』 “한국강사에이전시와 함께 슬기로운 강사생활을 시작하세요!” 장윤정 동화책 《모두의 눈 속에 내가 있어요》 “트로트의 여왕이 쓴 꽁냥꽁냥 생활 동화” “개그맨 황현희의 부동산·주식·비트코인 투자 방법” 황현희·제갈현열의 책 ‘비겁한 돈’ [신간도서] 가재산·김기진의『왜 지금 한국인가 : 한류경영과 K-리더십』 하단영역 하단메뉴 신문사 소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 용산구 청파로 269 4층 대표전화 : 02-707-2210 팩스 : 02-707-2214 이메일 : han@lecturernews.com 한국강사신문 사업자 등록번호 : 407-81-30626 개업연월일 : 2016년 5월 15일 발행·편집인 : 한상형 신문사업인터넷신문사업 등록번호 : 서울, 아04090 등록일자 : 2016-05-24 청소년보호책임자 : 정헌희 한국강사신문을 통해 제공되는 모든 콘텐츠(뉴스, 사진, 동영상 등)는 무단 사용, 복사, 배포 시 저작권법에 저해되며, 법적 제재를 받을 수 있습니다. Copyright © 2022 한국강사신문. All rights reserved. mail to han@lecturernews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정헌희 02-707-2210 han@lecturernews.com 위로 전체메뉴 전체기사 강사뉴스 책과 사람 북세미나 인터뷰 칼럼 커뮤니티 신문사 소개 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사협회 창립 17주년 기념행사 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 문화관광해설사협회 창립 17주년 기념행사 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도 문화관광해설사협회 창립 17주년 기념행사 개최 문유미 기자 승인 2018.08.13 19:14 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 문화관광해설사협회(회장 좌동열)는 지난 9일 제주웰컴센터에서   전성태 제주도 행정부지사와 김태석 제주도의회 의장, 도내 문화관광해설사 150여 명 등이 참석한 가운데 창립 17주년 기념행사를 진행했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>태풍 솔릭 피해 상황, 제주도 실종 관광객 수색 난항…건설 현장 초토화(사건반장) 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 태풍 솔릭 피해 상황, 제주도 실종 관광객 수색 난항…건설 현장 초토화(사건반장)2018. 08.23(목) 16:34 태풍 솔릭 피해 [티브이데일리 한예지 기자] 19호 태풍 솔릭 피해 현장이 공개됐다. 23일 방송된 종합편성채널 JTBC 시사프로그램 '사건반장'에서는 태풍 솔릭 피해 현장을 다뤘다. 이날 6년만에 한반도를 관통하는 19호 태풍 솔릭이 제주도에 상륙했고 점차 육지 쪽으로 이동 중이다. 태풍 솔릭 북상 속도가 예상보다 늦춰지며 제주도는 여전히 강풍에 휩싸이고 있다. 제주도 태풍 솔릭 피해 현장을 살펴보니 처참하게 변한 건설 현장이 눈길을 끌었다. 전체 외벽 감싸던 철제 구조물은 맥없이 엿가락처럼 휘어졌고, 건물 앞 쪽에 있던 돌덩이도 강력한 바람에 조금씩 떨어져 나갔다. 제주도 태풍 솔릭 피해 현장에는 바람으로 인해 휘어진 신호등도 눈길을 끌었다. 전날 저녁 제주도를 찾은 관광객 한 명도 폭포에서 사진을 찍으려다 강한 파도에 나무 난간이 무너져 내려 실종됐다. 이틀째 해경과 소방인력 등 60여명이 투입됐지만 수색 작업은 거센 바람과 파도로 난항을 겪고 있다. 강풍으로 오늘까지 정전 피해를 입은 가구 수만 9620여 가구다. 가로수가 쓰러져 도로를 가로막는가 하면, 건물 유리창과 간판이 잇따라 파손되고 있다. 선박과 비행기도 모두 결항되며 제주도의 하늘길과 바닷길이 모두 막힌 상태다. 전문가에 따르면 태풍 솔릭 이동 속도가 계속 떨어지는 이유에 대해 "19호 태풍 솔릭이 북상하고 있는데 일본 쪽으로 북상하는 20호 태풍 시마론이 있다. 일본으로 북상하며 우리나라 상층에 있는 북태평양 고기압을 서쪽으로 밀어주는 역할을 한다. 우리나라에 상층에 있던 북태평양 고기압이 서쪽으로 확장되며 19호 태풍 솔릭이 북상하는 것을 저지하는 역할을 한다. 그래서 태풍 속도가 4km로 늘어지는 것으로 보인다"고 했다. [티브이데일리 한예지 기자 news@tvdaily.co.kr/사진=JTBC 방송화면 캡처]기사제보 news@tvdaily.co.kr        한예지 기자의 다른 기사 보기 키워드 : 실시간이슈 '킹덤' 궁금하시죠? 김성훈 감독이 밝힌 비하인드 스토리 [이슈&amp;톡] '킹덤' 외신도 극찬, 전세계 매료시킬 '韓 좀비물'의 탄생 [TD현장 종합] '킹덤', 공개 전부터 시즌2 확정된 김은희 작가표 '역사물+크리쳐' [TD현장 종합] '킹덤' 김성훈 감독 "배두나, 사람 마음 얻는 진정성 가진 배우" 극찬 [TD현장] [단독] '오겜2' 이정재, 개런티 회당 10억 원 '역대 최고가'선우은숙♥유영재, 깜짝 재혼 발표 축하 물결 [이슈&amp;톡] 양조위, 40년 연기 인생이 곧 '화양연화' [27… 오은영 매직 없이, ‘우아달 리턴즈’ 호기로운 결단… '공조2' 장기 흥행vs'정직한 후보2' 2일 천하… 침묵 깬 YG…제니·뷔 '사생활 유포' 뒤늦은 진화… [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→… 선우은숙, 유영재 아나운서와 재혼 "혼인… 박시연, 음주운전 후 첫 공식석상…손담비… '작은 아씨들' 결말, 김고은 300억 … '남궁민♥' 진아름, 결혼 소감 "예쁘게… '작은 아씨들' 엄지원, 장광 살해 "넌… '태풍의 신부' 손창민, 박하나 父 살해… '동상이몽2' 오상진, 빼다박은 딸 최초… [TD포토+] 전효성 '완벽한 볼륨감…[TD포토+] 한예리 '흐르는 우아함… 톰 크루즈, 이번엔 우주로 가나 [TD할리웃] 안젤리나 졸리, 피트 아동 폭행 주장 “… 윌 스미스 '해방'으로 복귀 확정, 폭행… '폭행 논란' 윌 스미스, '해방' 통해… 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
+  </si>
+  <si>
+    <t>‘솔릭 피해’ 제주도 실종 여성, 24일 현재까지 발견못해…관광 도중 사진 찍다 파도 휩쓸려 - 김현서 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:47 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 ‘솔릭 피해’ 제주도 실종 여성, 24일 현재까지 발견못해…관광 도중 사진 찍다 파도 휩쓸려 김현서 기자 승인 2018.08.24 12:31 댓글 제보하기 반론요청 이 기사를 공유합니다 × 제19호 태풍 ‘솔릭’이 한반도를 강타하며 곳곳에서 실종자와 부상자가 발생했다. 24일 중앙재난안전대책본부(중대본) 측은 지난 22일 오후 제주도 서귀포시에 위치한 소정방폭포 인근에서 A(23)양과 B(31)씨가 파도에 휩쓸렸다고 전했다. 이 사고로 A양은 실종됐으며 B씨는 부상을 당한 상태다. 관광객 신분인 두 사람은 당시 사진을 찍던 도중 파도에 휩쓸린 것으로 알려졌다. 뉴시스 제공 파도에 휩쓸린 뒤, B씨는 자력으로 빠져나와 신고한 후 인근 병원으로 옮겨 졌다. 현재까지 A양은 발견되지 않았으며 서귀표해경이 수색 작업을 진행하고 있다. 김현서 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #제주도 #태풍 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/24 12:31 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘JTBC 뉴스룸’, 현재 제주도 상황 전해…’실종-정전-결항 등 피해 속출’ 제주도 실종 여성, 해경 26명 포함 총 60명이 수색 中…‘사고의 원인은 사진?’ 제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 ‘수요미식회’ B1A4 산들X한영X황석정, 영덕식과 서울식 안주 물회-제주도식 전복 물회 ‘수요미식회’ 단계별 물회, 속초 오징어물회- 포항 물회-제주도 자리돔물회 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 955 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 - 박세아 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:47 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 제주도 폭우·강풍 경고 ‘비상’, 관광객 1명 실종·정전 등 피해 속출 박세아 기자 승인 2018.08.23 06:21 댓글 제보하기 반론요청 이 기사를 공유합니다 × 태풍 ‘솔릭’이 제주도를 강타해 피해 소식이 연이어 전해지고 있다. 23일 제주도 재난안전대책본부와 서귀포해양경찰서 등에 따르면 지난 22일 오후 7시 19분께 서귀포시 소정방폭포에서 박모(23)씨와 이모(31)씨가 파도에 휩쓸려 바다에 빠졌다. 이 씨는 스스로 바다에서 빠져나와 신고, 도움을 요청했으며 박 씨는 현재까지 실종된 상태다. 해경과 소방대원, 경찰 등은 현장에서 수색을 벌이고 있지만 태풍 영향으로 바람이 강하게 불고 파도가 높아 실종자를 찾는 데 어려움을 겪고 있다. 해경은 이들이 폭포에서 사진을 찍으려고 계단으로 내려갔다가 사고를 당한 것으로 보고 있다. 정전도 도내 곳곳에서 발생했다. 한국전력 제주지역본부에 따르면 이번 태풍으로 제주에서 지난 22일부터 이날 오전 5시 현재까지 총 4천 500여 가구가 정전됐다. 연합뉴스 제공 이 가운데 현재 전력 복구가 되지 않은 곳은 서귀포 시내와 안덕면, 대정읍, 표선면 일대 총 4천 9가구에 달한다. 서귀포시 안덕면 사계리 일부 가구는 전날 오후 8시 17분께부터 9시간 넘게 정전이 이어지면서 주민들이 큰 불편을 겪고 있다. 서귀포시 색달동 일대와 안덕면 일부 지역 522가구는 정전이 복구된 상태다. 한전 관계자는 “강풍으로 인해 전선이 끊어져 정전된 것으로 보인다”며 “복구작업을 벌이고 있지만, 비바람이 워낙 강해서 애를 먹고 있다”고 말했다. 한편, 제주도와 일부 남해안에는 최대풍속 초속 20ｍ 내외, 제주도 산지에는 최대순간풍속 초속 400ｍ 내외의 매우 강한 바람이 불고 있다.박세아 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #제주도 #태풍 #피해 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/23 06:21 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 태풍에 김해공항 항공기 결항... 부산 선박 입출항·여객선 운행까지 차질 태풍 솔릭·시마론 상륙... 대한항공 결항편 안내 ‘비상대응체제 구축’ 경기도교육청, 태풍 ‘솔릭’ 피해 예상 시 등하교 시간 조정·휴교 대한상공회의소 자격평가사업단, 태풍에 따른 상시검정 유의사항 안내…확인 必 태풍 솔릭-시마론 진로 예상, 기상청 날씨누리가 발표한 위치 이동 경로는?…23일 목포 해상 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 955 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>제주도 인기 관광지 1위, 협재 해수욕장…‘비양도 한 눈에’ - 양인정 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:47 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 제주도 인기 관광지 1위, 협재 해수욕장…‘비양도 한 눈에’ 양인정 기자 승인 2018.08.14 12:50 댓글 제보하기 반론요청 이 기사를 공유합니다 × 현대엠엔소프트는 지난해 7월부터 8월까지 두 달간 스마트폰 내비게이션 앱 ‘맵피’의 목적지 검색어 데이터 1000위를 분석해 ‘제주도 인기 여행지’를 최근 공개했다. 현대엠엔소프트의 분석 결과 사람들이 가장 많이 찾은 제주도 인기 여행지 1위는 협재 해수욕장인 것으로 드러났다. 협재 해수욕장은 조개껍질이 많아 은빛으로 반짝이는 백사장과 에메랄드빛 해변이 넓게 펼쳐져 있는 이국적인 분위기로 유명하다. 특히 한 눈에 보이는 비양도와 해질녘 붉은 노을이 장관을 이뤄 일몰 명소로도 잘 알려져 있다. 푸른 바다 사이에 성채와 같은 모습으로 우뚝 솟아 있는 성산일출봉이 2위를 차지했다. 성산일출봉은 해발 182m 높이에서 내려다보는 일출 광경이 아름다워 외국인 관광객들도 많이 찾는 관광지다. 3위는 제주도 서귀포의 3대 폭포 중 가장 큰 규모를 자랑하는 천지연폭포였다. 높이 22m, 너비 12m, 수심 20cm에 달하는 천지연폭포는 울창한 상록수에 둘러싸여 있어 시원한 폭포 소리와 함께 상쾌한 공기를 마실 수 있다. 뉴시스 이외에도 관광객들은 섭지코지, 에코랜드, 용두암, 주상절리, 만장굴 등의 장소를 많이 방문했다. 현대엠엔소프트는 제주도 여행의 추억을 아름다운 사진으로 남길 수 있는 ‘인생샷 명소’도 공개했다. 월정리 해변은 곳곳에 형형색색의 나무 의자가 있어 멋스러운 사진을 찍을 수 있고 제주도 인기 장소 9위에 오른 이호테우 해변은 몽환적인 분위기의 황금빛 노을을 배경으로 그림 같은 사진을 찍을 수 있다. 양인정 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #비양도 #제주도 #협재해수욕장 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/08/14 12:50 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘섹시의 아이콘’ 경리, 제주도 여행 중 완벽한 뒤태 뽐내…‘너무 마른 몸매’ “제주도에서 여름 휴가”…빅스(VIXX) 엔, 일상 공개 제주도, 제주 실종 여성 사건 이후 바닷가 항·포구에서 캠핑 금지 제주도 실종 여성 사건 이후, ‘난민 범죄’ 관련 게시물 올라와…사회 내 불안감↑ 제주도 실종 여성 사망사건, 해당 발생지역 안전점검 이뤄지지 않아…‘방파제 주변 지역 주민과 남편 불화 있어’ 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 955 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 글로벌모터즈 온타임즈 PDF지면보기 English 中文 유통경제 facebook twitter youtube 검색 메뉴 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 공유 2 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점 전안나 기자 입력2018-08-20 18:10 9월에 제주도 가볼 만한 곳3...제주관광공사 중문면세점, 시내면세점이미지 확대보기제주관광공사 시내 면세점. 사진=제주관광공사. [글로벌이코노믹 전안나 기자] 그칠 줄 몰랐던 한여름 무더위도 결국 떠났다. 그래도 한낮 가을 뙤약볕을 무시하다간 큰 코 다치기 십상. 곡식이 무르익도록 마지막 힘을 쥐어짜는 가을볕이 여름볕보다 더 열정적일지 모른다. 이 때, 새벽부터 시작된 여정을 잠시 멈추고 여유로운 쇼핑을 해보는 건 어떨까. 제주관광공사 중문면세점과 신화월드 시내면세점은 연중무휴로 내국인 및 외국인이 모두 이용가능하다. 국내선을 이용할 경우 중문관광단지내 ICC제주국제컨벤션센터의 중문면세점을, 해외로 출국할 경우 신화월드에 입점한 시내 면세점에서 다양한 상품을 만나볼 수 있다. 제주에서의 즐거운 여행과 저렴한 가격으로 만나는 면세쇼핑은 제주여행의 또다른 묘미. 매월 세일 이벤트가 있지만, 추석이 다가오는 9월은 특별 프로모션이 준비되어 있으니, 필요하거나 꼭 갖고 싶은 물건을 좋은 조건으로 득템하는 기회를 잡아보자. ▪ 위치 : 중문면세점 : 서귀포시 중문관광로224 제주국제컨벤션센타 1F신화월드 시내면세점 : 서귀포시 안덕면 신화역사로304번길 38 전안나 기자 jan0206@g-enews.com 영국 뉴스 기본정보 무역 투자 비즈니스 여행 영국 공공조달 시장 진출 방안 2021.11.30 탄소중립 추진을 위한 영국의 Net Zero Strategy 2021.11.26 무역사고 피해를 예방하기 위해 확인해 볼 3가지 2021.11.10 Companies House를 활용한 처음 만난 영국기업 정보 확인하기 2021.10.21 영국 미용 전시회 Olympia Beauty 참관기 2021.10.19 헤드라인 뉴스 아우디, 美에 전기차 생산 거점 구상 중 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 스타일난다, 中 온라인판매 채널 축소…중국 홈페이지 운영중단 2 아마존, 유럽 전기 밴‧트럭에 10억 유로 이상 투자 3 빠르게 가깝게…오프라인 플랫폼 내 손안에 품는 GS리테일 4 파세코, '바로온' 출시…카본매트 시장 진출 5 ‘ONLYONE 철학’ 담은 CJ대한통운, 男골프 후원 빛났다 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 유통경제 실시간 뉴스 1시간전 롯데홈쇼핑 '대한민국 광클절' 개막부터 GS25 '버터맥주' 완판까지 뚝 떨어진 기온에…난방가전·국물요리 '불티' KT&amp;G, 미래에셋과 ‘신성장투자조합1호’ 결성…신사업 투자 본격화 2시간전 데일리호텔 특급호텔 프로모션부터 스파오 파자마 페스티벌까지 SPC그룹 섹터나인, 해피포인트 앱 캠페인부터 홈플러스 '신규 와인'까지 스타일난다, 中 온라인판매 채널 축소…중국 홈페이지 운영중단 9시간전 아마존, 유럽 전기 밴‧트럭에 10억 유로 이상 투자 신세계면세점, 국토부 '스마트물류센터' 인증 획득 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 글로벌모터즈 온타임즈 PDF지면보기 English 中文 부동산·공기업 facebook twitter youtube 검색 메뉴 건설·부동산 분양 공기업 부동산일반 공유 0 제주도관광협회, 몽골 아시아문화예술관광협회와 손잡고 관광문화와 연계한 비즈니스 네트워크 확대 전안나 기자 입력2018-08-21 14:05 제주특별자치도관광협회 김영진 회장(오른쪽)과 몽골아시아문화예술관광협회 촐롱바트 뭉흐졸 회장이 20일 몽골 울란바토르에서 우호교류 협약식을 체결한 후 기념사진을 촬영하고 있다.[글로벌이코노믹 전안나 기자] 제주특별자치도와 도관광협회(회장 김영진)는 몽골 아시아문화예술관광협회(회장 촐롱바트 뭉흐졸)와 손잡고 관광·문화·스포츠와 연계한 비즈니스 네트워크를 확대한다. 제주도관광협회는 20일 몽골 울란바토르에서 몽골 아시아문화관광협회와 상호 협력을 위한 우호 교류협약을 체결했다고 밝혔다. 이번 협약식에는 촐롱바트 뭉흐졸 아시아문화예술관광협회장(ACATA) 및 몽골 환경관광국 밧 에르덴 석희 관광국장을 비롯한 방한상품 취급 현지 주요여행업계 대표, 미야트 항공사 및 몽골 KCBN 방송 등 주요 언론매체 등이 참가했다. 제주도관광협회는 이날 협약식 후 현지 여행업계와 언론사를 대상으로 제주의 고부가가치 휴양 관광상품을 소개하는 설명회를 개최했다. 이번 협약에 따라 제주도에서 개최되는 주요 축제와 몽골의 나담축제 간 상호 정기적인 교차교류를 명문화 하는 등 실질적 시장 확대를 위한 교두보를 마련하는 계기가 될 것으로 기대된다. 제주도관광협회 관계자는 "앞으로 몽골과 매년 추진되고 있는 하계시즌 직항 전세기 운항을 더욱 더 확대하고 특히 경유상품을 업계와 공동 개발하여 시즌에 한정되지 않고 몽골 관광객이 제주를 더욱 쉽게 접근할 수 있도록 도내 관광사업체를 대상으로 실질적인 네트워크 구축 체계로 이어지도록 적극 노력 할 것"이라고 말했다. 전안나 기자 jan0206@g-enews.com 이집트 뉴스 기본정보 무역 투자 비즈니스 여행 이집트 The Big 5 Construct Egypt 2021 참관기 2021.07.17 이집트 신규 통관시스템, 어떻게 준비해야 하나 2021.06.11 이집트 공조시스템 전시회(HVAC-R Egypt Expo - ASHRAE) 참관기 2021.04.13 이집트 관세법 개정 내용 및 의의 2021.03.06 이집트 Mactech 2020 전시회 참관기 2020.12.29 헤드라인 뉴스 아우디, 美에 전기차 생산 거점 구상 중 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 시멘트업계와 협상 불발…레미콘업계 조업중단 현실화하나 2 GS건설 컨소시엄, 성남 신흥1구역 재개발사업 우선협상대상자로 3 롯데건설, 한남2구역 조합에 파격 금융 조건 제시 4 이상 외환송금, 은행권에서 금융투자업계로 ‘불똥’ 5 도로공사, 퇴직자 재취업 업체와 9000억대 수의계약 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 부동산·공기업 실시간 뉴스 1일전 현대건설, 2조 규모 '필리핀 남부도시철도사업' 본계약 체결 외국인이 7년여간 국내 아파트 3만채 사들여...중국인 62% 이상 외환송금, 은행권에서 금융투자업계로 ‘불똥’ 3일전 시멘트업계와 협상 불발…레미콘업계 조업중단 현실화하나 GS건설 컨소시엄, 성남 신흥1구역 재개발사업 우선협상대상자로 투자 수요 몰리는 오피스 시장, 강남 접근성 높은 '위례 테라스티지 오브제' 주목 3일전 얼어붙은 서울 아파트 매수심리…22주 연속 하락 SM한덕철광산업, 정선 '예미랩 지하실험실' 완공 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
   </si>
   <si>
     <t>제주도, 9월 관광객 대상 빅 이벤트 추진 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 국내여행 | 레저 전체보기 여행지 테마|즐길거리 골프/레저 맛집 호텔/리조트 축제/공연/이벤트 국내여행팁 English news 목록 제주도, 9월 관광객 대상 빅 이벤트 추진 도내 관광업체에서 최저 4%~70%, 일부 렌터카 90%까지 할인 혜택 제주 가을 축제장에서 경품권 제공 2018-08-09 14:46:36							, 수정 : 2018-08-09 15:15:21							 | 이상인 선임기자 [티티엘뉴스] 9월 제주에서는 관광객을 위한 빅 이벤트가 펼쳐진다. 제주특별자치도와 관광협회는 오는 9월 가을 관광 시즌을 맞아 제주관광 붐업을 위한 관광객 대상 이벤트를 추진한다고 오늘(9일) 밝혔다. 이번 행사에는 제주도 내 1,260개의 관광사업체가 참여하며, 기간 내 제주를 찾는 관광객에게는 쇼핑할인은 물론, 경품제공 및 할인업체 이용 관광객 대상 기념품 제공 등 다양한 혜택이 주어진다. 쇼핑할인은 숙박업, 기념품, 음식점 등 도내 관광사업체에서 최저 4%에서 70%까지, 일부 렌트카의 경우 90%까지 할인받을 수 있다. 특히, 9월에 제주를 방문하는 관광객에게 제주 공항, 항만, 가을축제장 등에서 제공하는 경품권은 추첨을 통해 500명에게 최저 10만 원에서 최고 100만 원권 상당의 관광상품권을 제공한다. 올 9월 제주도에서는 제주해녀축제, 용연선상음악회 등 제주의 문화의 특성을 살린 축제들이 계획되어 있다. 축제장을 찾는 관광객들은 제주의 가을 축제도 즐기면서, 축제장에서 제공되는 경품권을 통해 뜻밖의 행운도 거머쥘 기회를 얻게 된다. 또한, 쇼핑할인 업체를 3회 이상 방문한 관광객들에게는 15,000원 상당의 제주관광이용권을 모바일 인증을 통해 제공하여 행사 참여업체의 매출 증대를 유도하는 등 풍성한 가을의 기쁨을 선사할 계획이다. 양기철 제주도 관광국장은 “이번 행사를 통해 관광객들에게는 제주 가을의 아름다움을 만끽하면서 쇼핑할인의 기쁨을, 도내 관광사업체에서는 기념품 제공 이벤트를 진행하여 고객만족도 제고를 통한 매출증진이라는 두 마리 토끼를 동시에 잡는 기회로 삼겠다”고 말했다.  양 국장은 “2017년도 4월에 행한 그랜드세일은 사드문제 극복에 주안점을 둔 반면, 이번 행사는 내국인 관광객 유치 활성화에 목적을 두고 추진하는 행사로 앞으로도 제주의 콘텐츠와 연계한 온라인이벤트를 강화해 나가겠다”라고 밝혔다. 제주관광협회에서는 인터넷(탐나오)상에 행사전용 웹페이지를 개설하여 이번 행사를 안내하고 있다, 또한, 참여업체 리스트 및 업체별 구매처 링크 연계를 통해 제주관광상품 예약 및 결재할 수 있도록 함으로써 온라인 참여를 유도할 예정이다. 한편, 협회는 “이번 행사에 많은 관광객이 참여할 수 있도록 하기 위해 주요 포털 및 SNS 온라인홍보를 적극 추진하고, 주요도시(서울, 부산, 광주)에 위치한 제주관광홍보사무소를 통해 본 행사를 내국인 관광객들에게 적극 홍보할 계획”이라고 말했다. ▶축제 현황 : 행사참가자 대상 경품권 제공 ▶할인 행사 : 최저 온라인 가격 할인수준 유지 및 추가혜택 제공 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주시티투어버스, 기대 이상 호응 속 인기 제주도, 제33회 한국국제관광전에서 ‘최우수 부스 운영상’ 수상 제주도 공식 여행정보 포털 '탐나오' 한국국제관광전서 부각돼 [인터뷰] 김영진 제주특별자치도 관광협회 회장 '민간이 주도하는 관광제주를 이끈다' 제주는 지금 유채꽃 향연 유별남 작가 제주4.3 사건을 주제로 사진전시회 열어 제주 '봄' 축제 다 모였다! 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -437,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -513,9 +678,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -525,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +720,331 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
